--- a/Tables/LMER model summary table.xlsx
+++ b/Tables/LMER model summary table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40436072c29b51f3/University of Johannesburg/Post-Doc/Nature Research Centre/How Changes in Bioversity Change Biodiversity/Analyses/Biochange_Paper1/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="440" documentId="8_{BC8C9749-1975-4BE8-B956-10E4FE393B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8579E34D-F7EF-446E-B73E-C6884A209098}"/>
+  <xr:revisionPtr revIDLastSave="460" documentId="8_{BC8C9749-1975-4BE8-B956-10E4FE393B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91A59D14-ECB9-4B75-89C9-299D984613A1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="5" xr2:uid="{5D415A33-50B1-47F8-8F80-BE9FE3B299D6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{5D415A33-50B1-47F8-8F80-BE9FE3B299D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall lmer models" sheetId="2" r:id="rId1"/>
@@ -202,16 +202,10 @@
     <t>EQR</t>
   </si>
   <si>
-    <t>Bad</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Moderate</t>
   </si>
   <si>
     <t>Good</t>
-  </si>
-  <si>
-    <t>Very good</t>
   </si>
   <si>
     <t>Richness by taxonomic group</t>
@@ -260,6 +254,12 @@
   </si>
   <si>
     <t>Crustacea</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Bad/Poor</t>
   </si>
 </sst>
 </file>
@@ -437,20 +437,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -461,78 +458,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <color rgb="FFB17913"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2CC84"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF418770"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF95CCBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB17913"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2CC84"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF418770"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF95CCBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB17913"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2CC84"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF418770"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF95CCBA"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FFB17913"/>
@@ -987,36 +927,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="25" t="s">
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25" t="s">
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
     </row>
     <row r="2" spans="1:31" ht="137" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
@@ -1079,17 +1019,17 @@
       <c r="W2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="X2" s="33" t="s">
+      <c r="X2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="Y2" s="33" t="s">
+      <c r="Y2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA2" s="33" t="s">
-        <v>67</v>
+      <c r="Z2" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA2" s="25" t="s">
+        <v>65</v>
       </c>
       <c r="AB2" s="7" t="s">
         <v>17</v>
@@ -1494,7 +1434,7 @@
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="24" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1509,7 +1449,7 @@
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="24" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1524,8 +1464,8 @@
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="32" t="s">
-        <v>66</v>
+      <c r="A24" s="24" t="s">
+        <v>64</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1533,8 +1473,8 @@
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="32" t="s">
-        <v>67</v>
+      <c r="A25" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1598,10 +1538,10 @@
     <mergeCell ref="V1:AE1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:AE6 B3:E29">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1615,8 +1555,8 @@
   <dimension ref="A1:AI97"/>
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB1" sqref="AB1:AI61"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P70" sqref="P70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1696,16 +1636,16 @@
       </c>
     </row>
     <row r="2" spans="1:35" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="28"/>
+      <c r="D2" s="31"/>
       <c r="E2" s="19" t="s">
         <v>27</v>
       </c>
@@ -1716,30 +1656,30 @@
       <c r="H2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="28"/>
+      <c r="M2" s="31"/>
       <c r="N2" s="19"/>
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
       <c r="Q2" s="19"/>
-      <c r="S2" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="T2" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="U2" s="28" t="s">
+      <c r="S2" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="T2" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="U2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="28"/>
+      <c r="V2" s="31"/>
       <c r="W2" s="19" t="s">
         <v>27</v>
       </c>
@@ -1748,16 +1688,16 @@
         <v>27</v>
       </c>
       <c r="Z2" s="19"/>
-      <c r="AB2" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC2" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD2" s="28" t="s">
+      <c r="AB2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC2" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AE2" s="28"/>
+      <c r="AE2" s="31"/>
       <c r="AF2" s="19" t="s">
         <v>27</v>
       </c>
@@ -1768,9 +1708,9 @@
       <c r="AI2" s="19"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="26" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D3" s="17" t="s">
@@ -1780,9 +1720,9 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="26" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="32" t="s">
         <v>45</v>
       </c>
       <c r="M3" s="17" t="s">
@@ -1792,9 +1732,9 @@
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="26" t="s">
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="32" t="s">
         <v>45</v>
       </c>
       <c r="V3" s="17" t="s">
@@ -1806,9 +1746,9 @@
         <v>27</v>
       </c>
       <c r="Z3" s="15"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="26" t="s">
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="32" t="s">
         <v>45</v>
       </c>
       <c r="AE3" s="17" t="s">
@@ -1822,9 +1762,9 @@
       <c r="AI3" s="15"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="26"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="17" t="s">
         <v>34</v>
       </c>
@@ -1834,9 +1774,9 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="26"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="32"/>
       <c r="M4" s="17" t="s">
         <v>34</v>
       </c>
@@ -1844,9 +1784,9 @@
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="26"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="32"/>
       <c r="V4" s="17" t="s">
         <v>34</v>
       </c>
@@ -1856,9 +1796,9 @@
         <v>27</v>
       </c>
       <c r="Z4" s="15"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
-      <c r="AD4" s="26"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="32"/>
       <c r="AE4" s="17" t="s">
         <v>34</v>
       </c>
@@ -1868,9 +1808,9 @@
       <c r="AI4" s="15"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="26"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="17" t="s">
         <v>35</v>
       </c>
@@ -1880,9 +1820,9 @@
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="26"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="32"/>
       <c r="M5" s="17" t="s">
         <v>35</v>
       </c>
@@ -1892,9 +1832,9 @@
       </c>
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="26"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="32"/>
       <c r="V5" s="17" t="s">
         <v>35</v>
       </c>
@@ -1904,9 +1844,9 @@
       </c>
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="30"/>
-      <c r="AD5" s="26"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="32"/>
       <c r="AE5" s="17" t="s">
         <v>35</v>
       </c>
@@ -1918,9 +1858,9 @@
       <c r="AI5" s="15"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="26"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="17" t="s">
         <v>36</v>
       </c>
@@ -1932,9 +1872,9 @@
         <v>27</v>
       </c>
       <c r="H6" s="15"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="26"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="32"/>
       <c r="M6" s="17" t="s">
         <v>36</v>
       </c>
@@ -1942,9 +1882,9 @@
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
       <c r="Q6" s="15"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="26"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="32"/>
       <c r="V6" s="17" t="s">
         <v>36</v>
       </c>
@@ -1954,9 +1894,9 @@
       <c r="X6" s="15"/>
       <c r="Y6" s="15"/>
       <c r="Z6" s="15"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="26"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="32"/>
       <c r="AE6" s="17" t="s">
         <v>36</v>
       </c>
@@ -1968,9 +1908,9 @@
       <c r="AI6" s="15"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="26"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="17" t="s">
         <v>37</v>
       </c>
@@ -1982,9 +1922,9 @@
       <c r="H7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="26"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="32"/>
       <c r="M7" s="17" t="s">
         <v>37</v>
       </c>
@@ -1994,9 +1934,9 @@
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="26"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="32"/>
       <c r="V7" s="17" t="s">
         <v>37</v>
       </c>
@@ -2008,9 +1948,9 @@
         <v>27</v>
       </c>
       <c r="Z7" s="15"/>
-      <c r="AB7" s="30"/>
-      <c r="AC7" s="30"/>
-      <c r="AD7" s="26"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="32"/>
       <c r="AE7" s="17" t="s">
         <v>37</v>
       </c>
@@ -2022,9 +1962,9 @@
       <c r="AI7" s="15"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="26" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="32" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="17" t="s">
@@ -2038,9 +1978,9 @@
       <c r="H8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="26" t="s">
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="32" t="s">
         <v>39</v>
       </c>
       <c r="M8" s="17" t="s">
@@ -2050,9 +1990,9 @@
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="26" t="s">
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="32" t="s">
         <v>39</v>
       </c>
       <c r="V8" s="17" t="s">
@@ -2066,9 +2006,9 @@
         <v>27</v>
       </c>
       <c r="Z8" s="15"/>
-      <c r="AB8" s="30"/>
-      <c r="AC8" s="30"/>
-      <c r="AD8" s="26" t="s">
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="32" t="s">
         <v>39</v>
       </c>
       <c r="AE8" s="17" t="s">
@@ -2080,9 +2020,9 @@
       <c r="AI8" s="15"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="26"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="17" t="s">
         <v>46</v>
       </c>
@@ -2092,9 +2032,9 @@
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="26"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="32"/>
       <c r="M9" s="17" t="s">
         <v>46</v>
       </c>
@@ -2102,9 +2042,9 @@
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
       <c r="Q9" s="15"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="26"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="32"/>
       <c r="V9" s="17" t="s">
         <v>46</v>
       </c>
@@ -2114,9 +2054,9 @@
       <c r="X9" s="15"/>
       <c r="Y9" s="15"/>
       <c r="Z9" s="15"/>
-      <c r="AB9" s="30"/>
-      <c r="AC9" s="30"/>
-      <c r="AD9" s="26"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="32"/>
       <c r="AE9" s="17" t="s">
         <v>46</v>
       </c>
@@ -2130,13 +2070,13 @@
       <c r="AI9" s="15"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="26" t="s">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="32" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>28</v>
@@ -2144,37 +2084,37 @@
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="26" t="s">
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="32" t="s">
         <v>48</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
       <c r="Q10" s="15"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="26" t="s">
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="32" t="s">
         <v>48</v>
       </c>
       <c r="V10" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="W10" s="15"/>
       <c r="X10" s="15"/>
       <c r="Y10" s="15"/>
       <c r="Z10" s="15"/>
-      <c r="AB10" s="30"/>
-      <c r="AC10" s="30"/>
-      <c r="AD10" s="26" t="s">
+      <c r="AB10" s="29"/>
+      <c r="AC10" s="29"/>
+      <c r="AD10" s="32" t="s">
         <v>48</v>
       </c>
       <c r="AE10" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="AF10" s="15"/>
       <c r="AG10" s="15"/>
@@ -2184,11 +2124,11 @@
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="26"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
@@ -2198,21 +2138,21 @@
       <c r="H11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="26"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="32"/>
       <c r="M11" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
       <c r="Q11" s="15"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="26"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="32"/>
       <c r="V11" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="W11" s="15" t="s">
         <v>27</v>
@@ -2220,11 +2160,11 @@
       <c r="X11" s="15"/>
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
-      <c r="AB11" s="30"/>
-      <c r="AC11" s="30"/>
-      <c r="AD11" s="26"/>
+      <c r="AB11" s="29"/>
+      <c r="AC11" s="29"/>
+      <c r="AD11" s="32"/>
       <c r="AE11" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF11" s="15"/>
       <c r="AG11" s="15"/>
@@ -2232,11 +2172,11 @@
       <c r="AI11" s="15"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="26"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
@@ -2246,21 +2186,21 @@
       <c r="H12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="26"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="32"/>
       <c r="M12" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="15"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="26"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="32"/>
       <c r="V12" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W12" s="15"/>
       <c r="X12" s="15"/>
@@ -2268,11 +2208,11 @@
         <v>27</v>
       </c>
       <c r="Z12" s="15"/>
-      <c r="AB12" s="30"/>
-      <c r="AC12" s="30"/>
-      <c r="AD12" s="26"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="29"/>
+      <c r="AD12" s="32"/>
       <c r="AE12" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AF12" s="15"/>
       <c r="AG12" s="15"/>
@@ -2280,41 +2220,41 @@
       <c r="AI12" s="15"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="27"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="27"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="33"/>
       <c r="M13" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="27"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="33"/>
       <c r="V13" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="W13" s="16"/>
       <c r="X13" s="16"/>
       <c r="Y13" s="16"/>
       <c r="Z13" s="16"/>
-      <c r="AB13" s="30"/>
-      <c r="AC13" s="31"/>
-      <c r="AD13" s="27"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="33"/>
       <c r="AE13" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="AF13" s="16"/>
       <c r="AG13" s="16"/>
@@ -2322,14 +2262,14 @@
       <c r="AI13" s="16"/>
     </row>
     <row r="14" spans="1:35" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="28"/>
+      <c r="D14" s="31"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20" t="s">
         <v>28</v>
@@ -2338,14 +2278,14 @@
         <v>27</v>
       </c>
       <c r="H14" s="20"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30" t="s">
+      <c r="J14" s="29"/>
+      <c r="K14" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="L14" s="28" t="s">
+      <c r="L14" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="M14" s="28"/>
+      <c r="M14" s="31"/>
       <c r="N14" s="22" t="s">
         <v>27</v>
       </c>
@@ -2356,14 +2296,14 @@
         <v>27</v>
       </c>
       <c r="Q14" s="22"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="U14" s="28" t="s">
+      <c r="S14" s="29"/>
+      <c r="T14" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="U14" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="V14" s="28"/>
+      <c r="V14" s="31"/>
       <c r="W14" s="20" t="s">
         <v>27</v>
       </c>
@@ -2374,14 +2314,14 @@
         <v>27</v>
       </c>
       <c r="Z14" s="20"/>
-      <c r="AB14" s="30"/>
-      <c r="AC14" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD14" s="28" t="s">
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD14" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AE14" s="28"/>
+      <c r="AE14" s="31"/>
       <c r="AF14" s="20" t="s">
         <v>27</v>
       </c>
@@ -2394,9 +2334,9 @@
       <c r="AI14" s="20"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="26" t="s">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="17" t="s">
@@ -2408,9 +2348,9 @@
         <v>27</v>
       </c>
       <c r="H15" s="15"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="26" t="s">
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="32" t="s">
         <v>45</v>
       </c>
       <c r="M15" s="17" t="s">
@@ -2420,9 +2360,9 @@
       <c r="O15" s="15"/>
       <c r="P15" s="15"/>
       <c r="Q15" s="15"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="26" t="s">
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="32" t="s">
         <v>45</v>
       </c>
       <c r="V15" s="17" t="s">
@@ -2434,9 +2374,9 @@
       <c r="X15" s="15"/>
       <c r="Y15" s="15"/>
       <c r="Z15" s="15"/>
-      <c r="AB15" s="30"/>
-      <c r="AC15" s="30"/>
-      <c r="AD15" s="26" t="s">
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="32" t="s">
         <v>45</v>
       </c>
       <c r="AE15" s="17" t="s">
@@ -2450,9 +2390,9 @@
       <c r="AI15" s="15"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="26"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="17" t="s">
         <v>34</v>
       </c>
@@ -2462,9 +2402,9 @@
         <v>27</v>
       </c>
       <c r="H16" s="15"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="26"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="32"/>
       <c r="M16" s="17" t="s">
         <v>34</v>
       </c>
@@ -2474,9 +2414,9 @@
         <v>27</v>
       </c>
       <c r="Q16" s="15"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="26"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="32"/>
       <c r="V16" s="17" t="s">
         <v>34</v>
       </c>
@@ -2486,9 +2426,9 @@
         <v>27</v>
       </c>
       <c r="Z16" s="15"/>
-      <c r="AB16" s="30"/>
-      <c r="AC16" s="30"/>
-      <c r="AD16" s="26"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="32"/>
       <c r="AE16" s="17" t="s">
         <v>34</v>
       </c>
@@ -2498,9 +2438,9 @@
       <c r="AI16" s="15"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="26"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="17" t="s">
         <v>35</v>
       </c>
@@ -2508,9 +2448,9 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="26"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="32"/>
       <c r="M17" s="17" t="s">
         <v>35</v>
       </c>
@@ -2518,9 +2458,9 @@
       <c r="O17" s="15"/>
       <c r="P17" s="15"/>
       <c r="Q17" s="15"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="26"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="32"/>
       <c r="V17" s="17" t="s">
         <v>35</v>
       </c>
@@ -2528,9 +2468,9 @@
       <c r="X17" s="15"/>
       <c r="Y17" s="15"/>
       <c r="Z17" s="15"/>
-      <c r="AB17" s="30"/>
-      <c r="AC17" s="30"/>
-      <c r="AD17" s="26"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="32"/>
       <c r="AE17" s="17" t="s">
         <v>35</v>
       </c>
@@ -2542,9 +2482,9 @@
       <c r="AI17" s="15"/>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="26"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="17" t="s">
         <v>36</v>
       </c>
@@ -2558,9 +2498,9 @@
         <v>27</v>
       </c>
       <c r="H18" s="15"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="26"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="32"/>
       <c r="M18" s="17" t="s">
         <v>36</v>
       </c>
@@ -2570,9 +2510,9 @@
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
       <c r="Q18" s="15"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="26"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="32"/>
       <c r="V18" s="17" t="s">
         <v>36</v>
       </c>
@@ -2584,9 +2524,9 @@
         <v>27</v>
       </c>
       <c r="Z18" s="15"/>
-      <c r="AB18" s="30"/>
-      <c r="AC18" s="30"/>
-      <c r="AD18" s="26"/>
+      <c r="AB18" s="29"/>
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="32"/>
       <c r="AE18" s="17" t="s">
         <v>36</v>
       </c>
@@ -2600,9 +2540,9 @@
       <c r="AI18" s="15"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="26"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="17" t="s">
         <v>37</v>
       </c>
@@ -2614,9 +2554,9 @@
         <v>27</v>
       </c>
       <c r="H19" s="15"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="26"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="32"/>
       <c r="M19" s="17" t="s">
         <v>37</v>
       </c>
@@ -2626,9 +2566,9 @@
         <v>27</v>
       </c>
       <c r="Q19" s="15"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="26"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="32"/>
       <c r="V19" s="17" t="s">
         <v>37</v>
       </c>
@@ -2638,9 +2578,9 @@
         <v>27</v>
       </c>
       <c r="Z19" s="15"/>
-      <c r="AB19" s="30"/>
-      <c r="AC19" s="30"/>
-      <c r="AD19" s="26"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="32"/>
       <c r="AE19" s="17" t="s">
         <v>37</v>
       </c>
@@ -2652,9 +2592,9 @@
       <c r="AI19" s="15"/>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="26" t="s">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="32" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="17" t="s">
@@ -2668,9 +2608,9 @@
         <v>27</v>
       </c>
       <c r="H20" s="15"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="26" t="s">
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="32" t="s">
         <v>39</v>
       </c>
       <c r="M20" s="17" t="s">
@@ -2686,9 +2626,9 @@
         <v>27</v>
       </c>
       <c r="Q20" s="15"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="26" t="s">
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="32" t="s">
         <v>39</v>
       </c>
       <c r="V20" s="17" t="s">
@@ -2702,9 +2642,9 @@
         <v>27</v>
       </c>
       <c r="Z20" s="15"/>
-      <c r="AB20" s="30"/>
-      <c r="AC20" s="30"/>
-      <c r="AD20" s="26" t="s">
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="32" t="s">
         <v>39</v>
       </c>
       <c r="AE20" s="17" t="s">
@@ -2718,9 +2658,9 @@
       <c r="AI20" s="15"/>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="26"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="17" t="s">
         <v>46</v>
       </c>
@@ -2734,9 +2674,9 @@
         <v>27</v>
       </c>
       <c r="H21" s="15"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="26"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="32"/>
       <c r="M21" s="17" t="s">
         <v>46</v>
       </c>
@@ -2750,9 +2690,9 @@
         <v>27</v>
       </c>
       <c r="Q21" s="15"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="26"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="32"/>
       <c r="V21" s="17" t="s">
         <v>46</v>
       </c>
@@ -2764,9 +2704,9 @@
         <v>27</v>
       </c>
       <c r="Z21" s="15"/>
-      <c r="AB21" s="30"/>
-      <c r="AC21" s="30"/>
-      <c r="AD21" s="26"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="32"/>
       <c r="AE21" s="17" t="s">
         <v>46</v>
       </c>
@@ -2782,49 +2722,49 @@
       <c r="AI21" s="15"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="26" t="s">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="32" t="s">
         <v>48</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="26" t="s">
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="32" t="s">
         <v>48</v>
       </c>
       <c r="M22" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="N22" s="15"/>
       <c r="O22" s="15"/>
       <c r="P22" s="15"/>
       <c r="Q22" s="15"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="26" t="s">
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="32" t="s">
         <v>48</v>
       </c>
       <c r="V22" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="W22" s="15"/>
       <c r="X22" s="15"/>
       <c r="Y22" s="15"/>
       <c r="Z22" s="15"/>
-      <c r="AB22" s="30"/>
-      <c r="AC22" s="30"/>
-      <c r="AD22" s="26" t="s">
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="32" t="s">
         <v>48</v>
       </c>
       <c r="AE22" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="AF22" s="15" t="s">
         <v>28</v>
@@ -2834,11 +2774,11 @@
       <c r="AI22" s="15"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="26"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="15" t="s">
@@ -2848,11 +2788,11 @@
         <v>27</v>
       </c>
       <c r="H23" s="15"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="26"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="32"/>
       <c r="M23" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
@@ -2860,11 +2800,11 @@
         <v>27</v>
       </c>
       <c r="Q23" s="15"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="26"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="32"/>
       <c r="V23" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="W23" s="15" t="s">
         <v>27</v>
@@ -2876,29 +2816,29 @@
       <c r="Z23" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="AB23" s="30"/>
-      <c r="AC23" s="30"/>
-      <c r="AD23" s="26"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="32"/>
       <c r="AE23" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF23" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG23" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH23" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI23" s="15"/>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="17" t="s">
         <v>50</v>
-      </c>
-      <c r="AF23" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG23" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH23" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="AI23" s="15"/>
-    </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="17" t="s">
-        <v>51</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
@@ -2906,11 +2846,11 @@
         <v>27</v>
       </c>
       <c r="H24" s="15"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="26"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="32"/>
       <c r="M24" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N24" s="15"/>
       <c r="O24" s="15" t="s">
@@ -2920,11 +2860,11 @@
         <v>27</v>
       </c>
       <c r="Q24" s="15"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="26"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="32"/>
       <c r="V24" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W24" s="15"/>
       <c r="X24" s="15" t="s">
@@ -2934,11 +2874,11 @@
         <v>27</v>
       </c>
       <c r="Z24" s="15"/>
-      <c r="AB24" s="30"/>
-      <c r="AC24" s="30"/>
-      <c r="AD24" s="26"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="32"/>
       <c r="AE24" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AF24" s="15"/>
       <c r="AG24" s="15"/>
@@ -2950,41 +2890,41 @@
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="27"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="27"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="33"/>
       <c r="M25" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
       <c r="P25" s="16"/>
       <c r="Q25" s="16"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="27"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="33"/>
       <c r="V25" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="W25" s="16"/>
       <c r="X25" s="16"/>
       <c r="Y25" s="16"/>
       <c r="Z25" s="16"/>
-      <c r="AB25" s="30"/>
-      <c r="AC25" s="31"/>
-      <c r="AD25" s="27"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="30"/>
+      <c r="AD25" s="33"/>
       <c r="AE25" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="AF25" s="16"/>
       <c r="AG25" s="16"/>
@@ -2992,14 +2932,14 @@
       <c r="AI25" s="16"/>
     </row>
     <row r="26" spans="1:35" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30" t="s">
+      <c r="A26" s="29"/>
+      <c r="B26" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="28"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="20" t="s">
         <v>27</v>
       </c>
@@ -3008,47 +2948,47 @@
         <v>27</v>
       </c>
       <c r="H26" s="20"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="L26" s="28" t="s">
+      <c r="J26" s="29"/>
+      <c r="K26" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="L26" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="M26" s="28"/>
+      <c r="M26" s="31"/>
       <c r="N26" s="20"/>
       <c r="O26" s="20"/>
       <c r="P26" s="20"/>
       <c r="Q26" s="20"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="U26" s="28" t="s">
+      <c r="S26" s="29"/>
+      <c r="T26" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="U26" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="V26" s="28"/>
+      <c r="V26" s="31"/>
       <c r="W26" s="20"/>
       <c r="X26" s="20"/>
       <c r="Y26" s="20"/>
       <c r="Z26" s="20"/>
-      <c r="AB26" s="30"/>
-      <c r="AC26" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD26" s="28" t="s">
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD26" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AE26" s="28"/>
+      <c r="AE26" s="31"/>
       <c r="AF26" s="20"/>
       <c r="AG26" s="20"/>
       <c r="AH26" s="20"/>
       <c r="AI26" s="20"/>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="26" t="s">
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D27" s="17" t="s">
@@ -3060,9 +3000,9 @@
         <v>27</v>
       </c>
       <c r="H27" s="15"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="26" t="s">
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="32" t="s">
         <v>45</v>
       </c>
       <c r="M27" s="17" t="s">
@@ -3072,9 +3012,9 @@
       <c r="O27" s="15"/>
       <c r="P27" s="15"/>
       <c r="Q27" s="15"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="26" t="s">
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="32" t="s">
         <v>45</v>
       </c>
       <c r="V27" s="17" t="s">
@@ -3084,9 +3024,9 @@
       <c r="X27" s="15"/>
       <c r="Y27" s="15"/>
       <c r="Z27" s="15"/>
-      <c r="AB27" s="30"/>
-      <c r="AC27" s="30"/>
-      <c r="AD27" s="26" t="s">
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
+      <c r="AD27" s="32" t="s">
         <v>45</v>
       </c>
       <c r="AE27" s="17" t="s">
@@ -3098,9 +3038,9 @@
       <c r="AI27" s="15"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="26"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="32"/>
       <c r="D28" s="17" t="s">
         <v>34</v>
       </c>
@@ -3112,9 +3052,9 @@
         <v>27</v>
       </c>
       <c r="H28" s="15"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="26"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="32"/>
       <c r="M28" s="17" t="s">
         <v>34</v>
       </c>
@@ -3126,9 +3066,9 @@
         <v>27</v>
       </c>
       <c r="Q28" s="15"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="26"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="32"/>
       <c r="V28" s="17" t="s">
         <v>34</v>
       </c>
@@ -3136,9 +3076,9 @@
       <c r="X28" s="15"/>
       <c r="Y28" s="15"/>
       <c r="Z28" s="15"/>
-      <c r="AB28" s="30"/>
-      <c r="AC28" s="30"/>
-      <c r="AD28" s="26"/>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="29"/>
+      <c r="AD28" s="32"/>
       <c r="AE28" s="17" t="s">
         <v>34</v>
       </c>
@@ -3150,9 +3090,9 @@
       <c r="AI28" s="15"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="26"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="32"/>
       <c r="D29" s="17" t="s">
         <v>35</v>
       </c>
@@ -3160,9 +3100,9 @@
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="26"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="32"/>
       <c r="M29" s="17" t="s">
         <v>35</v>
       </c>
@@ -3170,9 +3110,9 @@
       <c r="O29" s="15"/>
       <c r="P29" s="15"/>
       <c r="Q29" s="15"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="26"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="32"/>
       <c r="V29" s="17" t="s">
         <v>35</v>
       </c>
@@ -3182,9 +3122,9 @@
       </c>
       <c r="Y29" s="15"/>
       <c r="Z29" s="15"/>
-      <c r="AB29" s="30"/>
-      <c r="AC29" s="30"/>
-      <c r="AD29" s="26"/>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="29"/>
+      <c r="AD29" s="32"/>
       <c r="AE29" s="17" t="s">
         <v>35</v>
       </c>
@@ -3194,9 +3134,9 @@
       <c r="AI29" s="15"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="26"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="32"/>
       <c r="D30" s="17" t="s">
         <v>36</v>
       </c>
@@ -3206,9 +3146,9 @@
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="26"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="32"/>
       <c r="M30" s="17" t="s">
         <v>36</v>
       </c>
@@ -3218,9 +3158,9 @@
         <v>28</v>
       </c>
       <c r="Q30" s="15"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="26"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="32"/>
       <c r="V30" s="17" t="s">
         <v>36</v>
       </c>
@@ -3228,9 +3168,9 @@
       <c r="X30" s="15"/>
       <c r="Y30" s="15"/>
       <c r="Z30" s="15"/>
-      <c r="AB30" s="30"/>
-      <c r="AC30" s="30"/>
-      <c r="AD30" s="26"/>
+      <c r="AB30" s="29"/>
+      <c r="AC30" s="29"/>
+      <c r="AD30" s="32"/>
       <c r="AE30" s="17" t="s">
         <v>36</v>
       </c>
@@ -3242,9 +3182,9 @@
       <c r="AI30" s="15"/>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="26"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="32"/>
       <c r="D31" s="17" t="s">
         <v>37</v>
       </c>
@@ -3256,9 +3196,9 @@
         <v>27</v>
       </c>
       <c r="H31" s="15"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="26"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="32"/>
       <c r="M31" s="17" t="s">
         <v>37</v>
       </c>
@@ -3266,9 +3206,9 @@
       <c r="O31" s="15"/>
       <c r="P31" s="15"/>
       <c r="Q31" s="15"/>
-      <c r="S31" s="30"/>
-      <c r="T31" s="30"/>
-      <c r="U31" s="26"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="32"/>
       <c r="V31" s="17" t="s">
         <v>37</v>
       </c>
@@ -3276,9 +3216,9 @@
       <c r="X31" s="15"/>
       <c r="Y31" s="15"/>
       <c r="Z31" s="15"/>
-      <c r="AB31" s="30"/>
-      <c r="AC31" s="30"/>
-      <c r="AD31" s="26"/>
+      <c r="AB31" s="29"/>
+      <c r="AC31" s="29"/>
+      <c r="AD31" s="32"/>
       <c r="AE31" s="17" t="s">
         <v>37</v>
       </c>
@@ -3288,9 +3228,9 @@
       <c r="AI31" s="15"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="26" t="s">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="32" t="s">
         <v>39</v>
       </c>
       <c r="D32" s="17" t="s">
@@ -3302,9 +3242,9 @@
         <v>27</v>
       </c>
       <c r="H32" s="15"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="26" t="s">
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="32" t="s">
         <v>39</v>
       </c>
       <c r="M32" s="17" t="s">
@@ -3314,9 +3254,9 @@
       <c r="O32" s="15"/>
       <c r="P32" s="15"/>
       <c r="Q32" s="15"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="30"/>
-      <c r="U32" s="26" t="s">
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="32" t="s">
         <v>39</v>
       </c>
       <c r="V32" s="17" t="s">
@@ -3326,9 +3266,9 @@
       <c r="X32" s="15"/>
       <c r="Y32" s="15"/>
       <c r="Z32" s="15"/>
-      <c r="AB32" s="30"/>
-      <c r="AC32" s="30"/>
-      <c r="AD32" s="26" t="s">
+      <c r="AB32" s="29"/>
+      <c r="AC32" s="29"/>
+      <c r="AD32" s="32" t="s">
         <v>39</v>
       </c>
       <c r="AE32" s="17" t="s">
@@ -3340,9 +3280,9 @@
       <c r="AI32" s="15"/>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="26"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="32"/>
       <c r="D33" s="17" t="s">
         <v>46</v>
       </c>
@@ -3354,9 +3294,9 @@
         <v>27</v>
       </c>
       <c r="H33" s="15"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="26"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="32"/>
       <c r="M33" s="17" t="s">
         <v>46</v>
       </c>
@@ -3366,9 +3306,9 @@
       </c>
       <c r="P33" s="15"/>
       <c r="Q33" s="15"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="26"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="32"/>
       <c r="V33" s="17" t="s">
         <v>46</v>
       </c>
@@ -3376,9 +3316,9 @@
       <c r="X33" s="15"/>
       <c r="Y33" s="15"/>
       <c r="Z33" s="15"/>
-      <c r="AB33" s="30"/>
-      <c r="AC33" s="30"/>
-      <c r="AD33" s="26"/>
+      <c r="AB33" s="29"/>
+      <c r="AC33" s="29"/>
+      <c r="AD33" s="32"/>
       <c r="AE33" s="17" t="s">
         <v>46</v>
       </c>
@@ -3388,25 +3328,25 @@
       <c r="AI33" s="15"/>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="26" t="s">
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="32" t="s">
         <v>48</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="26" t="s">
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="32" t="s">
         <v>48</v>
       </c>
       <c r="M34" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="N34" s="15"/>
       <c r="O34" s="15" t="s">
@@ -3416,13 +3356,13 @@
         <v>28</v>
       </c>
       <c r="Q34" s="15"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="30"/>
-      <c r="U34" s="26" t="s">
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="32" t="s">
         <v>48</v>
       </c>
       <c r="V34" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="W34" s="15"/>
       <c r="X34" s="15"/>
@@ -3430,13 +3370,13 @@
         <v>27</v>
       </c>
       <c r="Z34" s="15"/>
-      <c r="AB34" s="30"/>
-      <c r="AC34" s="30"/>
-      <c r="AD34" s="26" t="s">
+      <c r="AB34" s="29"/>
+      <c r="AC34" s="29"/>
+      <c r="AD34" s="32" t="s">
         <v>48</v>
       </c>
       <c r="AE34" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="AF34" s="15"/>
       <c r="AG34" s="15"/>
@@ -3444,11 +3384,11 @@
       <c r="AI34" s="15"/>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="26"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>27</v>
@@ -3458,31 +3398,31 @@
         <v>27</v>
       </c>
       <c r="H35" s="15"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="26"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="32"/>
       <c r="M35" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N35" s="15"/>
       <c r="O35" s="15"/>
       <c r="P35" s="15"/>
       <c r="Q35" s="15"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="30"/>
-      <c r="U35" s="26"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="32"/>
       <c r="V35" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="W35" s="15"/>
       <c r="X35" s="15"/>
       <c r="Y35" s="15"/>
       <c r="Z35" s="15"/>
-      <c r="AB35" s="30"/>
-      <c r="AC35" s="30"/>
-      <c r="AD35" s="26"/>
+      <c r="AB35" s="29"/>
+      <c r="AC35" s="29"/>
+      <c r="AD35" s="32"/>
       <c r="AE35" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF35" s="15"/>
       <c r="AG35" s="15"/>
@@ -3490,41 +3430,41 @@
       <c r="AI35" s="15"/>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="26"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="32"/>
       <c r="D36" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="26"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="32"/>
       <c r="M36" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N36" s="15"/>
       <c r="O36" s="15"/>
       <c r="P36" s="15"/>
       <c r="Q36" s="15"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="26"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="32"/>
       <c r="V36" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W36" s="15"/>
       <c r="X36" s="15"/>
       <c r="Y36" s="15"/>
       <c r="Z36" s="15"/>
-      <c r="AB36" s="30"/>
-      <c r="AC36" s="30"/>
-      <c r="AD36" s="26"/>
+      <c r="AB36" s="29"/>
+      <c r="AC36" s="29"/>
+      <c r="AD36" s="32"/>
       <c r="AE36" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AF36" s="15"/>
       <c r="AG36" s="15"/>
@@ -3532,11 +3472,11 @@
       <c r="AI36" s="15"/>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A37" s="30"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="27"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="33"/>
       <c r="D37" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>27</v>
@@ -3544,21 +3484,21 @@
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="27"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="33"/>
       <c r="M37" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="N37" s="16"/>
       <c r="O37" s="16"/>
       <c r="P37" s="16"/>
       <c r="Q37" s="16"/>
-      <c r="S37" s="30"/>
-      <c r="T37" s="31"/>
-      <c r="U37" s="27"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="30"/>
+      <c r="U37" s="33"/>
       <c r="V37" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="W37" s="16" t="s">
         <v>28</v>
@@ -3566,11 +3506,11 @@
       <c r="X37" s="16"/>
       <c r="Y37" s="16"/>
       <c r="Z37" s="16"/>
-      <c r="AB37" s="30"/>
-      <c r="AC37" s="31"/>
-      <c r="AD37" s="27"/>
+      <c r="AB37" s="29"/>
+      <c r="AC37" s="30"/>
+      <c r="AD37" s="33"/>
       <c r="AE37" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="AF37" s="16"/>
       <c r="AG37" s="16"/>
@@ -3578,14 +3518,14 @@
       <c r="AI37" s="16"/>
     </row>
     <row r="38" spans="1:35" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30" t="s">
+      <c r="A38" s="29"/>
+      <c r="B38" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="28"/>
+      <c r="D38" s="31"/>
       <c r="E38" s="20" t="s">
         <v>28</v>
       </c>
@@ -3596,40 +3536,40 @@
         <v>28</v>
       </c>
       <c r="H38" s="20"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="L38" s="28" t="s">
+      <c r="J38" s="29"/>
+      <c r="K38" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="L38" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="M38" s="28"/>
+      <c r="M38" s="31"/>
       <c r="N38" s="20"/>
       <c r="O38" s="20"/>
       <c r="P38" s="20"/>
       <c r="Q38" s="20"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="U38" s="28" t="s">
+      <c r="S38" s="29"/>
+      <c r="T38" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="U38" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="V38" s="28"/>
+      <c r="V38" s="31"/>
       <c r="W38" s="20"/>
       <c r="X38" s="20"/>
       <c r="Y38" s="20" t="s">
         <v>27</v>
       </c>
       <c r="Z38" s="20"/>
-      <c r="AB38" s="30"/>
-      <c r="AC38" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD38" s="28" t="s">
+      <c r="AB38" s="29"/>
+      <c r="AC38" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD38" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AE38" s="28"/>
+      <c r="AE38" s="31"/>
       <c r="AF38" s="20" t="s">
         <v>28</v>
       </c>
@@ -3640,9 +3580,9 @@
       <c r="AI38" s="20"/>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="26" t="s">
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D39" s="17" t="s">
@@ -3654,9 +3594,9 @@
         <v>28</v>
       </c>
       <c r="H39" s="15"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="26" t="s">
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="32" t="s">
         <v>45</v>
       </c>
       <c r="M39" s="17" t="s">
@@ -3666,9 +3606,9 @@
       <c r="O39" s="15"/>
       <c r="P39" s="15"/>
       <c r="Q39" s="15"/>
-      <c r="S39" s="30"/>
-      <c r="T39" s="30"/>
-      <c r="U39" s="26" t="s">
+      <c r="S39" s="29"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="32" t="s">
         <v>45</v>
       </c>
       <c r="V39" s="17" t="s">
@@ -3678,9 +3618,9 @@
       <c r="X39" s="15"/>
       <c r="Y39" s="15"/>
       <c r="Z39" s="15"/>
-      <c r="AB39" s="30"/>
-      <c r="AC39" s="30"/>
-      <c r="AD39" s="26" t="s">
+      <c r="AB39" s="29"/>
+      <c r="AC39" s="29"/>
+      <c r="AD39" s="32" t="s">
         <v>45</v>
       </c>
       <c r="AE39" s="17" t="s">
@@ -3692,9 +3632,9 @@
       <c r="AI39" s="15"/>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="26"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="32"/>
       <c r="D40" s="17" t="s">
         <v>34</v>
       </c>
@@ -3702,9 +3642,9 @@
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="26"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="32"/>
       <c r="M40" s="17" t="s">
         <v>34</v>
       </c>
@@ -3716,9 +3656,9 @@
       <c r="Q40" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="S40" s="30"/>
-      <c r="T40" s="30"/>
-      <c r="U40" s="26"/>
+      <c r="S40" s="29"/>
+      <c r="T40" s="29"/>
+      <c r="U40" s="32"/>
       <c r="V40" s="17" t="s">
         <v>34</v>
       </c>
@@ -3726,9 +3666,9 @@
       <c r="X40" s="15"/>
       <c r="Y40" s="15"/>
       <c r="Z40" s="15"/>
-      <c r="AB40" s="30"/>
-      <c r="AC40" s="30"/>
-      <c r="AD40" s="26"/>
+      <c r="AB40" s="29"/>
+      <c r="AC40" s="29"/>
+      <c r="AD40" s="32"/>
       <c r="AE40" s="17" t="s">
         <v>34</v>
       </c>
@@ -3740,9 +3680,9 @@
       <c r="AI40" s="15"/>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="26"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="32"/>
       <c r="D41" s="17" t="s">
         <v>35</v>
       </c>
@@ -3750,9 +3690,9 @@
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="26"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="32"/>
       <c r="M41" s="17" t="s">
         <v>35</v>
       </c>
@@ -3762,9 +3702,9 @@
       </c>
       <c r="P41" s="15"/>
       <c r="Q41" s="15"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="30"/>
-      <c r="U41" s="26"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="29"/>
+      <c r="U41" s="32"/>
       <c r="V41" s="17" t="s">
         <v>35</v>
       </c>
@@ -3772,9 +3712,9 @@
       <c r="X41" s="15"/>
       <c r="Y41" s="15"/>
       <c r="Z41" s="15"/>
-      <c r="AB41" s="30"/>
-      <c r="AC41" s="30"/>
-      <c r="AD41" s="26"/>
+      <c r="AB41" s="29"/>
+      <c r="AC41" s="29"/>
+      <c r="AD41" s="32"/>
       <c r="AE41" s="17" t="s">
         <v>35</v>
       </c>
@@ -3786,9 +3726,9 @@
       </c>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="26"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="32"/>
       <c r="D42" s="17" t="s">
         <v>36</v>
       </c>
@@ -3802,9 +3742,9 @@
         <v>28</v>
       </c>
       <c r="H42" s="15"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="26"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="32"/>
       <c r="M42" s="17" t="s">
         <v>36</v>
       </c>
@@ -3812,9 +3752,9 @@
       <c r="O42" s="15"/>
       <c r="P42" s="15"/>
       <c r="Q42" s="15"/>
-      <c r="S42" s="30"/>
-      <c r="T42" s="30"/>
-      <c r="U42" s="26"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="29"/>
+      <c r="U42" s="32"/>
       <c r="V42" s="17" t="s">
         <v>36</v>
       </c>
@@ -3822,9 +3762,9 @@
       <c r="X42" s="15"/>
       <c r="Y42" s="15"/>
       <c r="Z42" s="15"/>
-      <c r="AB42" s="30"/>
-      <c r="AC42" s="30"/>
-      <c r="AD42" s="26"/>
+      <c r="AB42" s="29"/>
+      <c r="AC42" s="29"/>
+      <c r="AD42" s="32"/>
       <c r="AE42" s="17" t="s">
         <v>36</v>
       </c>
@@ -3834,9 +3774,9 @@
       <c r="AI42" s="15"/>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="26"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="32"/>
       <c r="D43" s="17" t="s">
         <v>37</v>
       </c>
@@ -3848,9 +3788,9 @@
         <v>28</v>
       </c>
       <c r="H43" s="15"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="26"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="32"/>
       <c r="M43" s="17" t="s">
         <v>37</v>
       </c>
@@ -3858,9 +3798,9 @@
       <c r="O43" s="15"/>
       <c r="P43" s="15"/>
       <c r="Q43" s="15"/>
-      <c r="S43" s="30"/>
-      <c r="T43" s="30"/>
-      <c r="U43" s="26"/>
+      <c r="S43" s="29"/>
+      <c r="T43" s="29"/>
+      <c r="U43" s="32"/>
       <c r="V43" s="17" t="s">
         <v>37</v>
       </c>
@@ -3868,9 +3808,9 @@
       <c r="X43" s="15"/>
       <c r="Y43" s="15"/>
       <c r="Z43" s="15"/>
-      <c r="AB43" s="30"/>
-      <c r="AC43" s="30"/>
-      <c r="AD43" s="26"/>
+      <c r="AB43" s="29"/>
+      <c r="AC43" s="29"/>
+      <c r="AD43" s="32"/>
       <c r="AE43" s="17" t="s">
         <v>37</v>
       </c>
@@ -3882,9 +3822,9 @@
       </c>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="26" t="s">
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="32" t="s">
         <v>39</v>
       </c>
       <c r="D44" s="17" t="s">
@@ -3900,9 +3840,9 @@
         <v>28</v>
       </c>
       <c r="H44" s="15"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="26" t="s">
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="32" t="s">
         <v>39</v>
       </c>
       <c r="M44" s="17" t="s">
@@ -3912,9 +3852,9 @@
       <c r="O44" s="15"/>
       <c r="P44" s="15"/>
       <c r="Q44" s="15"/>
-      <c r="S44" s="30"/>
-      <c r="T44" s="30"/>
-      <c r="U44" s="26" t="s">
+      <c r="S44" s="29"/>
+      <c r="T44" s="29"/>
+      <c r="U44" s="32" t="s">
         <v>39</v>
       </c>
       <c r="V44" s="17" t="s">
@@ -3924,9 +3864,9 @@
       <c r="X44" s="15"/>
       <c r="Y44" s="15"/>
       <c r="Z44" s="15"/>
-      <c r="AB44" s="30"/>
-      <c r="AC44" s="30"/>
-      <c r="AD44" s="26" t="s">
+      <c r="AB44" s="29"/>
+      <c r="AC44" s="29"/>
+      <c r="AD44" s="32" t="s">
         <v>39</v>
       </c>
       <c r="AE44" s="17" t="s">
@@ -3940,9 +3880,9 @@
       <c r="AI44" s="15"/>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="26"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="32"/>
       <c r="D45" s="17" t="s">
         <v>46</v>
       </c>
@@ -3956,9 +3896,9 @@
         <v>28</v>
       </c>
       <c r="H45" s="15"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="26"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="32"/>
       <c r="M45" s="17" t="s">
         <v>46</v>
       </c>
@@ -3966,9 +3906,9 @@
       <c r="O45" s="15"/>
       <c r="P45" s="15"/>
       <c r="Q45" s="15"/>
-      <c r="S45" s="30"/>
-      <c r="T45" s="30"/>
-      <c r="U45" s="26"/>
+      <c r="S45" s="29"/>
+      <c r="T45" s="29"/>
+      <c r="U45" s="32"/>
       <c r="V45" s="17" t="s">
         <v>46</v>
       </c>
@@ -3976,9 +3916,9 @@
       <c r="X45" s="15"/>
       <c r="Y45" s="15"/>
       <c r="Z45" s="15"/>
-      <c r="AB45" s="30"/>
-      <c r="AC45" s="30"/>
-      <c r="AD45" s="26"/>
+      <c r="AB45" s="29"/>
+      <c r="AC45" s="29"/>
+      <c r="AD45" s="32"/>
       <c r="AE45" s="17" t="s">
         <v>46</v>
       </c>
@@ -3990,13 +3930,13 @@
       <c r="AI45" s="15"/>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A46" s="30"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="26" t="s">
+      <c r="A46" s="29"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="32" t="s">
         <v>48</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="15" t="s">
@@ -4006,37 +3946,37 @@
       <c r="H46" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="26" t="s">
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="32" t="s">
         <v>48</v>
       </c>
       <c r="M46" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="N46" s="15"/>
       <c r="O46" s="15"/>
       <c r="P46" s="15"/>
       <c r="Q46" s="15"/>
-      <c r="S46" s="30"/>
-      <c r="T46" s="30"/>
-      <c r="U46" s="26" t="s">
+      <c r="S46" s="29"/>
+      <c r="T46" s="29"/>
+      <c r="U46" s="32" t="s">
         <v>48</v>
       </c>
       <c r="V46" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="W46" s="15"/>
       <c r="X46" s="15"/>
       <c r="Y46" s="15"/>
       <c r="Z46" s="15"/>
-      <c r="AB46" s="30"/>
-      <c r="AC46" s="30"/>
-      <c r="AD46" s="26" t="s">
+      <c r="AB46" s="29"/>
+      <c r="AC46" s="29"/>
+      <c r="AD46" s="32" t="s">
         <v>48</v>
       </c>
       <c r="AE46" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="AF46" s="15"/>
       <c r="AG46" s="15"/>
@@ -4044,11 +3984,11 @@
       <c r="AI46" s="15"/>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A47" s="30"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="26"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="32"/>
       <c r="D47" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E47" s="15" t="s">
         <v>28</v>
@@ -4060,21 +4000,21 @@
         <v>28</v>
       </c>
       <c r="H47" s="15"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="26"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="32"/>
       <c r="M47" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N47" s="15"/>
       <c r="O47" s="15"/>
       <c r="P47" s="15"/>
       <c r="Q47" s="15"/>
-      <c r="S47" s="30"/>
-      <c r="T47" s="30"/>
-      <c r="U47" s="26"/>
+      <c r="S47" s="29"/>
+      <c r="T47" s="29"/>
+      <c r="U47" s="32"/>
       <c r="V47" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="W47" s="15"/>
       <c r="X47" s="15"/>
@@ -4082,11 +4022,11 @@
         <v>27</v>
       </c>
       <c r="Z47" s="15"/>
-      <c r="AB47" s="30"/>
-      <c r="AC47" s="30"/>
-      <c r="AD47" s="26"/>
+      <c r="AB47" s="29"/>
+      <c r="AC47" s="29"/>
+      <c r="AD47" s="32"/>
       <c r="AE47" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF47" s="15"/>
       <c r="AG47" s="15"/>
@@ -4094,11 +4034,11 @@
       <c r="AI47" s="15"/>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A48" s="30"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="26"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="32"/>
       <c r="D48" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
@@ -4106,21 +4046,21 @@
         <v>28</v>
       </c>
       <c r="H48" s="15"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="26"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="32"/>
       <c r="M48" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N48" s="15"/>
       <c r="O48" s="15"/>
       <c r="P48" s="15"/>
       <c r="Q48" s="15"/>
-      <c r="S48" s="30"/>
-      <c r="T48" s="30"/>
-      <c r="U48" s="26"/>
+      <c r="S48" s="29"/>
+      <c r="T48" s="29"/>
+      <c r="U48" s="32"/>
       <c r="V48" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W48" s="15" t="s">
         <v>28</v>
@@ -4128,11 +4068,11 @@
       <c r="X48" s="15"/>
       <c r="Y48" s="15"/>
       <c r="Z48" s="15"/>
-      <c r="AB48" s="30"/>
-      <c r="AC48" s="30"/>
-      <c r="AD48" s="26"/>
+      <c r="AB48" s="29"/>
+      <c r="AC48" s="29"/>
+      <c r="AD48" s="32"/>
       <c r="AE48" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AF48" s="15"/>
       <c r="AG48" s="15"/>
@@ -4140,41 +4080,41 @@
       <c r="AI48" s="15"/>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A49" s="30"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="27"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="33"/>
       <c r="D49" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
       <c r="G49" s="16"/>
       <c r="H49" s="16"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="27"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="33"/>
       <c r="M49" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="N49" s="16"/>
       <c r="O49" s="16"/>
       <c r="P49" s="16"/>
       <c r="Q49" s="16"/>
-      <c r="S49" s="30"/>
-      <c r="T49" s="31"/>
-      <c r="U49" s="27"/>
+      <c r="S49" s="29"/>
+      <c r="T49" s="30"/>
+      <c r="U49" s="33"/>
       <c r="V49" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="W49" s="16"/>
       <c r="X49" s="16"/>
       <c r="Y49" s="16"/>
       <c r="Z49" s="16"/>
-      <c r="AB49" s="30"/>
-      <c r="AC49" s="31"/>
-      <c r="AD49" s="27"/>
+      <c r="AB49" s="29"/>
+      <c r="AC49" s="30"/>
+      <c r="AD49" s="33"/>
       <c r="AE49" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="AF49" s="16"/>
       <c r="AG49" s="16"/>
@@ -4182,14 +4122,14 @@
       <c r="AI49" s="16"/>
     </row>
     <row r="50" spans="1:35" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="30"/>
-      <c r="B50" s="30" t="s">
+      <c r="A50" s="29"/>
+      <c r="B50" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="28" t="s">
+      <c r="C50" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D50" s="28"/>
+      <c r="D50" s="31"/>
       <c r="E50" s="20" t="s">
         <v>27</v>
       </c>
@@ -4198,42 +4138,42 @@
         <v>27</v>
       </c>
       <c r="H50" s="20"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="L50" s="28" t="s">
+      <c r="J50" s="29"/>
+      <c r="K50" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="L50" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="M50" s="28"/>
+      <c r="M50" s="31"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22" t="s">
         <v>28</v>
       </c>
       <c r="P50" s="22"/>
       <c r="Q50" s="23"/>
-      <c r="S50" s="30"/>
-      <c r="T50" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="U50" s="28" t="s">
+      <c r="S50" s="29"/>
+      <c r="T50" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="U50" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="V50" s="28"/>
+      <c r="V50" s="31"/>
       <c r="W50" s="20"/>
       <c r="X50" s="20" t="s">
         <v>28</v>
       </c>
       <c r="Y50" s="20"/>
       <c r="Z50" s="20"/>
-      <c r="AB50" s="30"/>
-      <c r="AC50" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD50" s="28" t="s">
+      <c r="AB50" s="29"/>
+      <c r="AC50" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD50" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AE50" s="28"/>
+      <c r="AE50" s="31"/>
       <c r="AF50" s="20"/>
       <c r="AG50" s="20" t="s">
         <v>28</v>
@@ -4246,9 +4186,9 @@
       </c>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A51" s="30"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="26" t="s">
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D51" s="17" t="s">
@@ -4258,9 +4198,9 @@
       <c r="F51" s="15"/>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="26" t="s">
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="32" t="s">
         <v>45</v>
       </c>
       <c r="M51" s="17" t="s">
@@ -4271,9 +4211,9 @@
         <v>28</v>
       </c>
       <c r="Q51" s="15"/>
-      <c r="S51" s="30"/>
-      <c r="T51" s="30"/>
-      <c r="U51" s="26" t="s">
+      <c r="S51" s="29"/>
+      <c r="T51" s="29"/>
+      <c r="U51" s="32" t="s">
         <v>45</v>
       </c>
       <c r="V51" s="17" t="s">
@@ -4283,9 +4223,9 @@
       <c r="X51" s="15"/>
       <c r="Y51" s="15"/>
       <c r="Z51" s="15"/>
-      <c r="AB51" s="30"/>
-      <c r="AC51" s="30"/>
-      <c r="AD51" s="26" t="s">
+      <c r="AB51" s="29"/>
+      <c r="AC51" s="29"/>
+      <c r="AD51" s="32" t="s">
         <v>45</v>
       </c>
       <c r="AE51" s="17" t="s">
@@ -4297,9 +4237,9 @@
       <c r="AI51" s="15"/>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A52" s="30"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="26"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="32"/>
       <c r="D52" s="17" t="s">
         <v>34</v>
       </c>
@@ -4307,9 +4247,9 @@
       <c r="F52" s="15"/>
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="26"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="32"/>
       <c r="M52" s="17" t="s">
         <v>34</v>
       </c>
@@ -4317,9 +4257,9 @@
       <c r="O52" s="15"/>
       <c r="P52" s="15"/>
       <c r="Q52" s="15"/>
-      <c r="S52" s="30"/>
-      <c r="T52" s="30"/>
-      <c r="U52" s="26"/>
+      <c r="S52" s="29"/>
+      <c r="T52" s="29"/>
+      <c r="U52" s="32"/>
       <c r="V52" s="17" t="s">
         <v>34</v>
       </c>
@@ -4327,9 +4267,9 @@
       <c r="X52" s="15"/>
       <c r="Y52" s="15"/>
       <c r="Z52" s="15"/>
-      <c r="AB52" s="30"/>
-      <c r="AC52" s="30"/>
-      <c r="AD52" s="26"/>
+      <c r="AB52" s="29"/>
+      <c r="AC52" s="29"/>
+      <c r="AD52" s="32"/>
       <c r="AE52" s="17" t="s">
         <v>34</v>
       </c>
@@ -4339,9 +4279,9 @@
       <c r="AI52" s="15"/>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A53" s="30"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="26"/>
+      <c r="A53" s="29"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="32"/>
       <c r="D53" s="17" t="s">
         <v>35</v>
       </c>
@@ -4349,9 +4289,9 @@
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="26"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="32"/>
       <c r="M53" s="17" t="s">
         <v>35</v>
       </c>
@@ -4359,9 +4299,9 @@
       <c r="O53" s="15"/>
       <c r="P53" s="15"/>
       <c r="Q53" s="15"/>
-      <c r="S53" s="30"/>
-      <c r="T53" s="30"/>
-      <c r="U53" s="26"/>
+      <c r="S53" s="29"/>
+      <c r="T53" s="29"/>
+      <c r="U53" s="32"/>
       <c r="V53" s="17" t="s">
         <v>35</v>
       </c>
@@ -4369,9 +4309,9 @@
       <c r="X53" s="15"/>
       <c r="Y53" s="15"/>
       <c r="Z53" s="15"/>
-      <c r="AB53" s="30"/>
-      <c r="AC53" s="30"/>
-      <c r="AD53" s="26"/>
+      <c r="AB53" s="29"/>
+      <c r="AC53" s="29"/>
+      <c r="AD53" s="32"/>
       <c r="AE53" s="17" t="s">
         <v>35</v>
       </c>
@@ -4381,9 +4321,9 @@
       <c r="AI53" s="15"/>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A54" s="30"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="26"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="32"/>
       <c r="D54" s="17" t="s">
         <v>36</v>
       </c>
@@ -4393,9 +4333,9 @@
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="26"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="32"/>
       <c r="M54" s="17" t="s">
         <v>36</v>
       </c>
@@ -4403,9 +4343,9 @@
       <c r="O54" s="15"/>
       <c r="P54" s="15"/>
       <c r="Q54" s="15"/>
-      <c r="S54" s="30"/>
-      <c r="T54" s="30"/>
-      <c r="U54" s="26"/>
+      <c r="S54" s="29"/>
+      <c r="T54" s="29"/>
+      <c r="U54" s="32"/>
       <c r="V54" s="17" t="s">
         <v>36</v>
       </c>
@@ -4415,9 +4355,9 @@
       </c>
       <c r="Y54" s="15"/>
       <c r="Z54" s="15"/>
-      <c r="AB54" s="30"/>
-      <c r="AC54" s="30"/>
-      <c r="AD54" s="26"/>
+      <c r="AB54" s="29"/>
+      <c r="AC54" s="29"/>
+      <c r="AD54" s="32"/>
       <c r="AE54" s="17" t="s">
         <v>36</v>
       </c>
@@ -4427,9 +4367,9 @@
       <c r="AI54" s="15"/>
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A55" s="30"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="26"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="32"/>
       <c r="D55" s="17" t="s">
         <v>37</v>
       </c>
@@ -4441,9 +4381,9 @@
         <v>27</v>
       </c>
       <c r="H55" s="15"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="26"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="32"/>
       <c r="M55" s="17" t="s">
         <v>37</v>
       </c>
@@ -4451,9 +4391,9 @@
       <c r="O55" s="15"/>
       <c r="P55" s="15"/>
       <c r="Q55" s="15"/>
-      <c r="S55" s="30"/>
-      <c r="T55" s="30"/>
-      <c r="U55" s="26"/>
+      <c r="S55" s="29"/>
+      <c r="T55" s="29"/>
+      <c r="U55" s="32"/>
       <c r="V55" s="17" t="s">
         <v>37</v>
       </c>
@@ -4461,9 +4401,9 @@
       <c r="X55" s="15"/>
       <c r="Y55" s="15"/>
       <c r="Z55" s="15"/>
-      <c r="AB55" s="30"/>
-      <c r="AC55" s="30"/>
-      <c r="AD55" s="26"/>
+      <c r="AB55" s="29"/>
+      <c r="AC55" s="29"/>
+      <c r="AD55" s="32"/>
       <c r="AE55" s="17" t="s">
         <v>37</v>
       </c>
@@ -4475,9 +4415,9 @@
       </c>
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A56" s="30"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="26" t="s">
+      <c r="A56" s="29"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="32" t="s">
         <v>39</v>
       </c>
       <c r="D56" s="17" t="s">
@@ -4487,9 +4427,9 @@
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="26" t="s">
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="32" t="s">
         <v>39</v>
       </c>
       <c r="M56" s="17" t="s">
@@ -4499,9 +4439,9 @@
       <c r="O56" s="15"/>
       <c r="P56" s="15"/>
       <c r="Q56" s="15"/>
-      <c r="S56" s="30"/>
-      <c r="T56" s="30"/>
-      <c r="U56" s="26" t="s">
+      <c r="S56" s="29"/>
+      <c r="T56" s="29"/>
+      <c r="U56" s="32" t="s">
         <v>39</v>
       </c>
       <c r="V56" s="17" t="s">
@@ -4513,9 +4453,9 @@
       </c>
       <c r="Y56" s="15"/>
       <c r="Z56" s="15"/>
-      <c r="AB56" s="30"/>
-      <c r="AC56" s="30"/>
-      <c r="AD56" s="26" t="s">
+      <c r="AB56" s="29"/>
+      <c r="AC56" s="29"/>
+      <c r="AD56" s="32" t="s">
         <v>39</v>
       </c>
       <c r="AE56" s="17" t="s">
@@ -4529,9 +4469,9 @@
       </c>
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A57" s="30"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="26"/>
+      <c r="A57" s="29"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="32"/>
       <c r="D57" s="17" t="s">
         <v>46</v>
       </c>
@@ -4543,9 +4483,9 @@
         <v>27</v>
       </c>
       <c r="H57" s="15"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="26"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="32"/>
       <c r="M57" s="17" t="s">
         <v>46</v>
       </c>
@@ -4555,9 +4495,9 @@
         <v>28</v>
       </c>
       <c r="Q57" s="15"/>
-      <c r="S57" s="30"/>
-      <c r="T57" s="30"/>
-      <c r="U57" s="26"/>
+      <c r="S57" s="29"/>
+      <c r="T57" s="29"/>
+      <c r="U57" s="32"/>
       <c r="V57" s="17" t="s">
         <v>46</v>
       </c>
@@ -4567,9 +4507,9 @@
       </c>
       <c r="Y57" s="15"/>
       <c r="Z57" s="15"/>
-      <c r="AB57" s="30"/>
-      <c r="AC57" s="30"/>
-      <c r="AD57" s="26"/>
+      <c r="AB57" s="29"/>
+      <c r="AC57" s="29"/>
+      <c r="AD57" s="32"/>
       <c r="AE57" s="17" t="s">
         <v>46</v>
       </c>
@@ -4581,49 +4521,49 @@
       <c r="AI57" s="15"/>
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A58" s="30"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="26" t="s">
+      <c r="A58" s="29"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="32" t="s">
         <v>48</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="26" t="s">
+      <c r="J58" s="29"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="32" t="s">
         <v>48</v>
       </c>
       <c r="M58" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="N58" s="15"/>
       <c r="O58" s="15"/>
       <c r="P58" s="15"/>
       <c r="Q58" s="15"/>
-      <c r="S58" s="30"/>
-      <c r="T58" s="30"/>
-      <c r="U58" s="26" t="s">
+      <c r="S58" s="29"/>
+      <c r="T58" s="29"/>
+      <c r="U58" s="32" t="s">
         <v>48</v>
       </c>
       <c r="V58" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="W58" s="15"/>
       <c r="X58" s="15"/>
       <c r="Y58" s="15"/>
       <c r="Z58" s="15"/>
-      <c r="AB58" s="30"/>
-      <c r="AC58" s="30"/>
-      <c r="AD58" s="26" t="s">
+      <c r="AB58" s="29"/>
+      <c r="AC58" s="29"/>
+      <c r="AD58" s="32" t="s">
         <v>48</v>
       </c>
       <c r="AE58" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="AF58" s="15"/>
       <c r="AG58" s="15"/>
@@ -4631,11 +4571,11 @@
       <c r="AI58" s="15"/>
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A59" s="30"/>
-      <c r="B59" s="30"/>
-      <c r="C59" s="26"/>
+      <c r="A59" s="29"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="32"/>
       <c r="D59" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E59" s="15"/>
       <c r="F59" s="15"/>
@@ -4643,11 +4583,11 @@
       <c r="H59" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="J59" s="30"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="26"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="32"/>
       <c r="M59" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N59" s="15"/>
       <c r="O59" s="15"/>
@@ -4655,11 +4595,11 @@
         <v>28</v>
       </c>
       <c r="Q59" s="15"/>
-      <c r="S59" s="30"/>
-      <c r="T59" s="30"/>
-      <c r="U59" s="26"/>
+      <c r="S59" s="29"/>
+      <c r="T59" s="29"/>
+      <c r="U59" s="32"/>
       <c r="V59" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="W59" s="15"/>
       <c r="X59" s="15" t="s">
@@ -4667,11 +4607,11 @@
       </c>
       <c r="Y59" s="15"/>
       <c r="Z59" s="15"/>
-      <c r="AB59" s="30"/>
-      <c r="AC59" s="30"/>
-      <c r="AD59" s="26"/>
+      <c r="AB59" s="29"/>
+      <c r="AC59" s="29"/>
+      <c r="AD59" s="32"/>
       <c r="AE59" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF59" s="15"/>
       <c r="AG59" s="15" t="s">
@@ -4685,41 +4625,41 @@
       </c>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A60" s="30"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="26"/>
+      <c r="A60" s="29"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="32"/>
       <c r="D60" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
       <c r="H60" s="15"/>
-      <c r="J60" s="30"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="26"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="32"/>
       <c r="M60" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N60" s="15"/>
       <c r="O60" s="15"/>
       <c r="P60" s="15"/>
       <c r="Q60" s="15"/>
-      <c r="S60" s="30"/>
-      <c r="T60" s="30"/>
-      <c r="U60" s="26"/>
+      <c r="S60" s="29"/>
+      <c r="T60" s="29"/>
+      <c r="U60" s="32"/>
       <c r="V60" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W60" s="15"/>
       <c r="X60" s="15"/>
       <c r="Y60" s="15"/>
       <c r="Z60" s="15"/>
-      <c r="AB60" s="30"/>
-      <c r="AC60" s="30"/>
-      <c r="AD60" s="26"/>
+      <c r="AB60" s="29"/>
+      <c r="AC60" s="29"/>
+      <c r="AD60" s="32"/>
       <c r="AE60" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AF60" s="15"/>
       <c r="AG60" s="15"/>
@@ -4729,41 +4669,41 @@
       </c>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A61" s="30"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="27"/>
+      <c r="A61" s="29"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="33"/>
       <c r="D61" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
       <c r="G61" s="16"/>
       <c r="H61" s="16"/>
-      <c r="J61" s="30"/>
-      <c r="K61" s="31"/>
-      <c r="L61" s="27"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="33"/>
       <c r="M61" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="N61" s="16"/>
       <c r="O61" s="16"/>
       <c r="P61" s="16"/>
       <c r="Q61" s="16"/>
-      <c r="S61" s="31"/>
-      <c r="T61" s="31"/>
-      <c r="U61" s="27"/>
+      <c r="S61" s="30"/>
+      <c r="T61" s="30"/>
+      <c r="U61" s="33"/>
       <c r="V61" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="W61" s="16"/>
       <c r="X61" s="16"/>
       <c r="Y61" s="16"/>
       <c r="Z61" s="16"/>
-      <c r="AB61" s="31"/>
-      <c r="AC61" s="31"/>
-      <c r="AD61" s="27"/>
+      <c r="AB61" s="30"/>
+      <c r="AC61" s="30"/>
+      <c r="AD61" s="33"/>
       <c r="AE61" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="AF61" s="16"/>
       <c r="AG61" s="16"/>
@@ -4771,35 +4711,35 @@
       <c r="AI61" s="16"/>
     </row>
     <row r="62" spans="1:35" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="30"/>
-      <c r="B62" s="30" t="s">
+      <c r="A62" s="29"/>
+      <c r="B62" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C62" s="28" t="s">
+      <c r="C62" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D62" s="28"/>
+      <c r="D62" s="31"/>
       <c r="E62" s="21"/>
       <c r="F62" s="21"/>
       <c r="G62" s="21"/>
       <c r="H62" s="21"/>
-      <c r="J62" s="30"/>
-      <c r="K62" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="L62" s="28" t="s">
+      <c r="J62" s="29"/>
+      <c r="K62" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="L62" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="M62" s="28"/>
+      <c r="M62" s="31"/>
       <c r="N62" s="21"/>
       <c r="O62" s="21"/>
       <c r="P62" s="21"/>
       <c r="Q62" s="21"/>
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A63" s="30"/>
-      <c r="B63" s="30"/>
-      <c r="C63" s="26" t="s">
+      <c r="A63" s="29"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D63" s="17" t="s">
@@ -4809,9 +4749,9 @@
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
       <c r="H63" s="15"/>
-      <c r="J63" s="30"/>
-      <c r="K63" s="30"/>
-      <c r="L63" s="26" t="s">
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="32" t="s">
         <v>45</v>
       </c>
       <c r="M63" s="17" t="s">
@@ -4823,9 +4763,9 @@
       <c r="Q63" s="15"/>
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A64" s="30"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="26"/>
+      <c r="A64" s="29"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="32"/>
       <c r="D64" s="17" t="s">
         <v>34</v>
       </c>
@@ -4833,9 +4773,9 @@
       <c r="F64" s="15"/>
       <c r="G64" s="15"/>
       <c r="H64" s="15"/>
-      <c r="J64" s="30"/>
-      <c r="K64" s="30"/>
-      <c r="L64" s="26"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="32"/>
       <c r="M64" s="17" t="s">
         <v>34</v>
       </c>
@@ -4847,9 +4787,9 @@
       </c>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A65" s="30"/>
-      <c r="B65" s="30"/>
-      <c r="C65" s="26"/>
+      <c r="A65" s="29"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="32"/>
       <c r="D65" s="17" t="s">
         <v>35</v>
       </c>
@@ -4859,9 +4799,9 @@
         <v>28</v>
       </c>
       <c r="H65" s="15"/>
-      <c r="J65" s="30"/>
-      <c r="K65" s="30"/>
-      <c r="L65" s="26"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="32"/>
       <c r="M65" s="17" t="s">
         <v>35</v>
       </c>
@@ -4873,9 +4813,9 @@
       </c>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A66" s="30"/>
-      <c r="B66" s="30"/>
-      <c r="C66" s="26"/>
+      <c r="A66" s="29"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="32"/>
       <c r="D66" s="17" t="s">
         <v>36</v>
       </c>
@@ -4885,9 +4825,9 @@
       <c r="F66" s="15"/>
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
-      <c r="J66" s="30"/>
-      <c r="K66" s="30"/>
-      <c r="L66" s="26"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="32"/>
       <c r="M66" s="17" t="s">
         <v>36</v>
       </c>
@@ -4904,9 +4844,9 @@
       <c r="Y66" s="3"/>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A67" s="30"/>
-      <c r="B67" s="30"/>
-      <c r="C67" s="26"/>
+      <c r="A67" s="29"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="32"/>
       <c r="D67" s="17" t="s">
         <v>37</v>
       </c>
@@ -4914,9 +4854,9 @@
       <c r="F67" s="15"/>
       <c r="G67" s="15"/>
       <c r="H67" s="15"/>
-      <c r="J67" s="30"/>
-      <c r="K67" s="30"/>
-      <c r="L67" s="26"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="32"/>
       <c r="M67" s="17" t="s">
         <v>37</v>
       </c>
@@ -4931,9 +4871,9 @@
       <c r="U67" s="1"/>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A68" s="30"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="26" t="s">
+      <c r="A68" s="29"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="32" t="s">
         <v>39</v>
       </c>
       <c r="D68" s="17" t="s">
@@ -4943,9 +4883,9 @@
       <c r="F68" s="15"/>
       <c r="G68" s="15"/>
       <c r="H68" s="15"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="30"/>
-      <c r="L68" s="26" t="s">
+      <c r="J68" s="29"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="32" t="s">
         <v>39</v>
       </c>
       <c r="M68" s="17" t="s">
@@ -4962,9 +4902,9 @@
       <c r="Y68" s="3"/>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A69" s="30"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="26"/>
+      <c r="A69" s="29"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="32"/>
       <c r="D69" s="17" t="s">
         <v>46</v>
       </c>
@@ -4972,9 +4912,9 @@
       <c r="F69" s="15"/>
       <c r="G69" s="15"/>
       <c r="H69" s="15"/>
-      <c r="J69" s="30"/>
-      <c r="K69" s="30"/>
-      <c r="L69" s="26"/>
+      <c r="J69" s="29"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="32"/>
       <c r="M69" s="17" t="s">
         <v>46</v>
       </c>
@@ -4989,25 +4929,25 @@
       <c r="Y69" s="3"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A70" s="30"/>
-      <c r="B70" s="30"/>
-      <c r="C70" s="26" t="s">
+      <c r="A70" s="29"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="32" t="s">
         <v>48</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E70" s="15"/>
       <c r="F70" s="15"/>
       <c r="G70" s="15"/>
       <c r="H70" s="15"/>
-      <c r="J70" s="30"/>
-      <c r="K70" s="30"/>
-      <c r="L70" s="26" t="s">
+      <c r="J70" s="29"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="32" t="s">
         <v>48</v>
       </c>
       <c r="M70" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="N70" s="15"/>
       <c r="O70" s="15"/>
@@ -5017,21 +4957,21 @@
       <c r="V70" s="3"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A71" s="30"/>
-      <c r="B71" s="30"/>
-      <c r="C71" s="26"/>
+      <c r="A71" s="29"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="32"/>
       <c r="D71" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E71" s="15"/>
       <c r="F71" s="15"/>
       <c r="G71" s="15"/>
       <c r="H71" s="15"/>
-      <c r="J71" s="30"/>
-      <c r="K71" s="30"/>
-      <c r="L71" s="26"/>
+      <c r="J71" s="29"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="32"/>
       <c r="M71" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N71" s="15"/>
       <c r="O71" s="15"/>
@@ -5044,21 +4984,21 @@
       <c r="Y71" s="3"/>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A72" s="30"/>
-      <c r="B72" s="30"/>
-      <c r="C72" s="26"/>
+      <c r="A72" s="29"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="32"/>
       <c r="D72" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E72" s="15"/>
       <c r="F72" s="15"/>
       <c r="G72" s="15"/>
       <c r="H72" s="15"/>
-      <c r="J72" s="30"/>
-      <c r="K72" s="30"/>
-      <c r="L72" s="26"/>
+      <c r="J72" s="29"/>
+      <c r="K72" s="29"/>
+      <c r="L72" s="32"/>
       <c r="M72" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N72" s="15"/>
       <c r="O72" s="15" t="s">
@@ -5073,21 +5013,21 @@
       <c r="Y72" s="3"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A73" s="31"/>
-      <c r="B73" s="31"/>
-      <c r="C73" s="27"/>
+      <c r="A73" s="30"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="33"/>
       <c r="D73" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E73" s="16"/>
       <c r="F73" s="16"/>
       <c r="G73" s="16"/>
       <c r="H73" s="16"/>
-      <c r="J73" s="30"/>
-      <c r="K73" s="31"/>
-      <c r="L73" s="27"/>
+      <c r="J73" s="29"/>
+      <c r="K73" s="30"/>
+      <c r="L73" s="33"/>
       <c r="M73" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="N73" s="16"/>
       <c r="O73" s="16"/>
@@ -5097,23 +5037,23 @@
       <c r="V73" s="3"/>
     </row>
     <row r="74" spans="1:25" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J74" s="30"/>
-      <c r="K74" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="L74" s="28" t="s">
+      <c r="J74" s="29"/>
+      <c r="K74" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="L74" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="M74" s="28"/>
+      <c r="M74" s="31"/>
       <c r="N74" s="21"/>
       <c r="O74" s="21"/>
       <c r="P74" s="21"/>
       <c r="Q74" s="21"/>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="J75" s="30"/>
-      <c r="K75" s="30"/>
-      <c r="L75" s="26" t="s">
+      <c r="J75" s="29"/>
+      <c r="K75" s="29"/>
+      <c r="L75" s="32" t="s">
         <v>45</v>
       </c>
       <c r="M75" s="17" t="s">
@@ -5125,9 +5065,9 @@
       <c r="Q75" s="15"/>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="J76" s="30"/>
-      <c r="K76" s="30"/>
-      <c r="L76" s="26"/>
+      <c r="J76" s="29"/>
+      <c r="K76" s="29"/>
+      <c r="L76" s="32"/>
       <c r="M76" s="17" t="s">
         <v>34</v>
       </c>
@@ -5137,9 +5077,9 @@
       <c r="Q76" s="15"/>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="J77" s="30"/>
-      <c r="K77" s="30"/>
-      <c r="L77" s="26"/>
+      <c r="J77" s="29"/>
+      <c r="K77" s="29"/>
+      <c r="L77" s="32"/>
       <c r="M77" s="17" t="s">
         <v>35</v>
       </c>
@@ -5149,9 +5089,9 @@
       <c r="Q77" s="15"/>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="J78" s="30"/>
-      <c r="K78" s="30"/>
-      <c r="L78" s="26"/>
+      <c r="J78" s="29"/>
+      <c r="K78" s="29"/>
+      <c r="L78" s="32"/>
       <c r="M78" s="17" t="s">
         <v>36</v>
       </c>
@@ -5161,9 +5101,9 @@
       <c r="Q78" s="15"/>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="J79" s="30"/>
-      <c r="K79" s="30"/>
-      <c r="L79" s="26"/>
+      <c r="J79" s="29"/>
+      <c r="K79" s="29"/>
+      <c r="L79" s="32"/>
       <c r="M79" s="17" t="s">
         <v>37</v>
       </c>
@@ -5175,9 +5115,9 @@
       <c r="Q79" s="15"/>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="J80" s="30"/>
-      <c r="K80" s="30"/>
-      <c r="L80" s="26" t="s">
+      <c r="J80" s="29"/>
+      <c r="K80" s="29"/>
+      <c r="L80" s="32" t="s">
         <v>39</v>
       </c>
       <c r="M80" s="17" t="s">
@@ -5191,9 +5131,9 @@
       <c r="Q80" s="15"/>
     </row>
     <row r="81" spans="10:17" x14ac:dyDescent="0.35">
-      <c r="J81" s="30"/>
-      <c r="K81" s="30"/>
-      <c r="L81" s="26"/>
+      <c r="J81" s="29"/>
+      <c r="K81" s="29"/>
+      <c r="L81" s="32"/>
       <c r="M81" s="17" t="s">
         <v>46</v>
       </c>
@@ -5203,13 +5143,13 @@
       <c r="Q81" s="15"/>
     </row>
     <row r="82" spans="10:17" x14ac:dyDescent="0.35">
-      <c r="J82" s="30"/>
-      <c r="K82" s="30"/>
-      <c r="L82" s="26" t="s">
+      <c r="J82" s="29"/>
+      <c r="K82" s="29"/>
+      <c r="L82" s="32" t="s">
         <v>48</v>
       </c>
       <c r="M82" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="N82" s="15"/>
       <c r="O82" s="15" t="s">
@@ -5221,11 +5161,11 @@
       <c r="Q82" s="15"/>
     </row>
     <row r="83" spans="10:17" x14ac:dyDescent="0.35">
-      <c r="J83" s="30"/>
-      <c r="K83" s="30"/>
-      <c r="L83" s="26"/>
+      <c r="J83" s="29"/>
+      <c r="K83" s="29"/>
+      <c r="L83" s="32"/>
       <c r="M83" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N83" s="15"/>
       <c r="O83" s="15"/>
@@ -5233,11 +5173,11 @@
       <c r="Q83" s="15"/>
     </row>
     <row r="84" spans="10:17" x14ac:dyDescent="0.35">
-      <c r="J84" s="30"/>
-      <c r="K84" s="30"/>
-      <c r="L84" s="26"/>
+      <c r="J84" s="29"/>
+      <c r="K84" s="29"/>
+      <c r="L84" s="32"/>
       <c r="M84" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N84" s="15"/>
       <c r="O84" s="15"/>
@@ -5245,11 +5185,11 @@
       <c r="Q84" s="15"/>
     </row>
     <row r="85" spans="10:17" x14ac:dyDescent="0.35">
-      <c r="J85" s="30"/>
-      <c r="K85" s="31"/>
-      <c r="L85" s="27"/>
+      <c r="J85" s="29"/>
+      <c r="K85" s="30"/>
+      <c r="L85" s="33"/>
       <c r="M85" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="N85" s="16"/>
       <c r="O85" s="16"/>
@@ -5257,14 +5197,14 @@
       <c r="Q85" s="16"/>
     </row>
     <row r="86" spans="10:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="J86" s="30"/>
-      <c r="K86" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="L86" s="28" t="s">
+      <c r="J86" s="29"/>
+      <c r="K86" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="L86" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="M86" s="28"/>
+      <c r="M86" s="31"/>
       <c r="N86" s="22"/>
       <c r="O86" s="22"/>
       <c r="P86" s="22" t="s">
@@ -5273,9 +5213,9 @@
       <c r="Q86" s="23"/>
     </row>
     <row r="87" spans="10:17" x14ac:dyDescent="0.35">
-      <c r="J87" s="30"/>
-      <c r="K87" s="30"/>
-      <c r="L87" s="26" t="s">
+      <c r="J87" s="29"/>
+      <c r="K87" s="29"/>
+      <c r="L87" s="32" t="s">
         <v>45</v>
       </c>
       <c r="M87" s="17" t="s">
@@ -5287,9 +5227,9 @@
       <c r="Q87" s="15"/>
     </row>
     <row r="88" spans="10:17" x14ac:dyDescent="0.35">
-      <c r="J88" s="30"/>
-      <c r="K88" s="30"/>
-      <c r="L88" s="26"/>
+      <c r="J88" s="29"/>
+      <c r="K88" s="29"/>
+      <c r="L88" s="32"/>
       <c r="M88" s="17" t="s">
         <v>34</v>
       </c>
@@ -5303,9 +5243,9 @@
       <c r="Q88" s="15"/>
     </row>
     <row r="89" spans="10:17" x14ac:dyDescent="0.35">
-      <c r="J89" s="30"/>
-      <c r="K89" s="30"/>
-      <c r="L89" s="26"/>
+      <c r="J89" s="29"/>
+      <c r="K89" s="29"/>
+      <c r="L89" s="32"/>
       <c r="M89" s="17" t="s">
         <v>35</v>
       </c>
@@ -5317,9 +5257,9 @@
       <c r="Q89" s="15"/>
     </row>
     <row r="90" spans="10:17" x14ac:dyDescent="0.35">
-      <c r="J90" s="30"/>
-      <c r="K90" s="30"/>
-      <c r="L90" s="26"/>
+      <c r="J90" s="29"/>
+      <c r="K90" s="29"/>
+      <c r="L90" s="32"/>
       <c r="M90" s="17" t="s">
         <v>36</v>
       </c>
@@ -5331,9 +5271,9 @@
       <c r="Q90" s="15"/>
     </row>
     <row r="91" spans="10:17" x14ac:dyDescent="0.35">
-      <c r="J91" s="30"/>
-      <c r="K91" s="30"/>
-      <c r="L91" s="26"/>
+      <c r="J91" s="29"/>
+      <c r="K91" s="29"/>
+      <c r="L91" s="32"/>
       <c r="M91" s="17" t="s">
         <v>37</v>
       </c>
@@ -5345,9 +5285,9 @@
       <c r="Q91" s="15"/>
     </row>
     <row r="92" spans="10:17" x14ac:dyDescent="0.35">
-      <c r="J92" s="30"/>
-      <c r="K92" s="30"/>
-      <c r="L92" s="26" t="s">
+      <c r="J92" s="29"/>
+      <c r="K92" s="29"/>
+      <c r="L92" s="32" t="s">
         <v>39</v>
       </c>
       <c r="M92" s="17" t="s">
@@ -5359,9 +5299,9 @@
       <c r="Q92" s="15"/>
     </row>
     <row r="93" spans="10:17" x14ac:dyDescent="0.35">
-      <c r="J93" s="30"/>
-      <c r="K93" s="30"/>
-      <c r="L93" s="26"/>
+      <c r="J93" s="29"/>
+      <c r="K93" s="29"/>
+      <c r="L93" s="32"/>
       <c r="M93" s="17" t="s">
         <v>46</v>
       </c>
@@ -5371,13 +5311,13 @@
       <c r="Q93" s="15"/>
     </row>
     <row r="94" spans="10:17" x14ac:dyDescent="0.35">
-      <c r="J94" s="30"/>
-      <c r="K94" s="30"/>
-      <c r="L94" s="26" t="s">
+      <c r="J94" s="29"/>
+      <c r="K94" s="29"/>
+      <c r="L94" s="32" t="s">
         <v>48</v>
       </c>
       <c r="M94" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="N94" s="15"/>
       <c r="O94" s="15"/>
@@ -5385,11 +5325,11 @@
       <c r="Q94" s="15"/>
     </row>
     <row r="95" spans="10:17" x14ac:dyDescent="0.35">
-      <c r="J95" s="30"/>
-      <c r="K95" s="30"/>
-      <c r="L95" s="26"/>
+      <c r="J95" s="29"/>
+      <c r="K95" s="29"/>
+      <c r="L95" s="32"/>
       <c r="M95" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N95" s="15"/>
       <c r="O95" s="15"/>
@@ -5399,11 +5339,11 @@
       </c>
     </row>
     <row r="96" spans="10:17" x14ac:dyDescent="0.35">
-      <c r="J96" s="30"/>
-      <c r="K96" s="30"/>
-      <c r="L96" s="26"/>
+      <c r="J96" s="29"/>
+      <c r="K96" s="29"/>
+      <c r="L96" s="32"/>
       <c r="M96" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N96" s="15"/>
       <c r="O96" s="15"/>
@@ -5411,11 +5351,11 @@
       <c r="Q96" s="15"/>
     </row>
     <row r="97" spans="10:17" x14ac:dyDescent="0.35">
-      <c r="J97" s="31"/>
-      <c r="K97" s="31"/>
-      <c r="L97" s="27"/>
+      <c r="J97" s="30"/>
+      <c r="K97" s="30"/>
+      <c r="L97" s="33"/>
       <c r="M97" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="N97" s="16"/>
       <c r="O97" s="16"/>
@@ -5424,6 +5364,106 @@
     </row>
   </sheetData>
   <mergeCells count="124">
+    <mergeCell ref="A2:A73"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="B14:B25"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B62:B73"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="B26:B37"/>
+    <mergeCell ref="B38:B49"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="U15:U19"/>
+    <mergeCell ref="U20:U21"/>
+    <mergeCell ref="U22:U25"/>
+    <mergeCell ref="T26:T37"/>
+    <mergeCell ref="K50:K61"/>
+    <mergeCell ref="L51:L55"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="L58:L61"/>
+    <mergeCell ref="K14:K25"/>
+    <mergeCell ref="L15:L19"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L22:L25"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="B50:B61"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="J2:J97"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AD10:AD13"/>
+    <mergeCell ref="AC14:AC25"/>
+    <mergeCell ref="AD15:AD19"/>
+    <mergeCell ref="AD20:AD21"/>
+    <mergeCell ref="AD22:AD25"/>
+    <mergeCell ref="AC26:AC37"/>
+    <mergeCell ref="T50:T61"/>
+    <mergeCell ref="U51:U55"/>
+    <mergeCell ref="U56:U57"/>
+    <mergeCell ref="U58:U61"/>
+    <mergeCell ref="U50:V50"/>
+    <mergeCell ref="U27:U31"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="U34:U37"/>
+    <mergeCell ref="T38:T49"/>
+    <mergeCell ref="U39:U43"/>
+    <mergeCell ref="U44:U45"/>
+    <mergeCell ref="U46:U49"/>
+    <mergeCell ref="T2:T13"/>
+    <mergeCell ref="U3:U7"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="U10:U13"/>
+    <mergeCell ref="T14:T25"/>
+    <mergeCell ref="K74:K85"/>
+    <mergeCell ref="L75:L79"/>
+    <mergeCell ref="L80:L81"/>
+    <mergeCell ref="L82:L85"/>
+    <mergeCell ref="K86:K97"/>
+    <mergeCell ref="L87:L91"/>
+    <mergeCell ref="L92:L93"/>
+    <mergeCell ref="L94:L97"/>
+    <mergeCell ref="K2:K13"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="L10:L13"/>
+    <mergeCell ref="K62:K73"/>
+    <mergeCell ref="L63:L67"/>
+    <mergeCell ref="L68:L69"/>
+    <mergeCell ref="L70:L73"/>
+    <mergeCell ref="L27:L31"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="L34:L37"/>
+    <mergeCell ref="K38:K49"/>
+    <mergeCell ref="L39:L43"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="L46:L49"/>
+    <mergeCell ref="K26:K37"/>
     <mergeCell ref="S2:S61"/>
     <mergeCell ref="AB2:AB61"/>
     <mergeCell ref="AD26:AE26"/>
@@ -5448,112 +5488,12 @@
     <mergeCell ref="AD38:AE38"/>
     <mergeCell ref="AC2:AC13"/>
     <mergeCell ref="AD3:AD7"/>
-    <mergeCell ref="K74:K85"/>
-    <mergeCell ref="L75:L79"/>
-    <mergeCell ref="L80:L81"/>
-    <mergeCell ref="L82:L85"/>
-    <mergeCell ref="K86:K97"/>
-    <mergeCell ref="L87:L91"/>
-    <mergeCell ref="L92:L93"/>
-    <mergeCell ref="L94:L97"/>
-    <mergeCell ref="K2:K13"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="L10:L13"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AD10:AD13"/>
-    <mergeCell ref="AC14:AC25"/>
-    <mergeCell ref="AD15:AD19"/>
-    <mergeCell ref="AD20:AD21"/>
-    <mergeCell ref="AD22:AD25"/>
-    <mergeCell ref="AC26:AC37"/>
-    <mergeCell ref="T50:T61"/>
-    <mergeCell ref="U51:U55"/>
-    <mergeCell ref="U56:U57"/>
-    <mergeCell ref="U58:U61"/>
-    <mergeCell ref="U50:V50"/>
-    <mergeCell ref="U27:U31"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="U34:U37"/>
-    <mergeCell ref="T38:T49"/>
-    <mergeCell ref="U39:U43"/>
-    <mergeCell ref="U44:U45"/>
-    <mergeCell ref="U46:U49"/>
-    <mergeCell ref="T2:T13"/>
-    <mergeCell ref="U3:U7"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="U10:U13"/>
-    <mergeCell ref="T14:T25"/>
-    <mergeCell ref="K62:K73"/>
-    <mergeCell ref="L63:L67"/>
-    <mergeCell ref="L68:L69"/>
-    <mergeCell ref="L70:L73"/>
-    <mergeCell ref="L27:L31"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="L34:L37"/>
-    <mergeCell ref="K38:K49"/>
-    <mergeCell ref="L39:L43"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="L46:L49"/>
-    <mergeCell ref="K26:K37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="B50:B61"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="U15:U19"/>
-    <mergeCell ref="U20:U21"/>
-    <mergeCell ref="U22:U25"/>
-    <mergeCell ref="T26:T37"/>
-    <mergeCell ref="K50:K61"/>
-    <mergeCell ref="L51:L55"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="L58:L61"/>
-    <mergeCell ref="K14:K25"/>
-    <mergeCell ref="L15:L19"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L22:L25"/>
-    <mergeCell ref="J2:J97"/>
-    <mergeCell ref="L86:M86"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="A2:A73"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B14:B25"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B62:B73"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="B26:B37"/>
-    <mergeCell ref="B38:B49"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:C43"/>
   </mergeCells>
   <conditionalFormatting sqref="N2:Q50 W2:Z61 AF2:AI61 E2:H73 N51 P51:Q51 N52:Q97">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5570,8 +5510,8 @@
   <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L45" sqref="L45"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5600,16 +5540,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="28"/>
+      <c r="D2" s="31"/>
       <c r="E2" s="19" t="s">
         <v>27</v>
       </c>
@@ -5622,9 +5562,9 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="26" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D3" s="17" t="s">
@@ -5636,9 +5576,9 @@
       <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="26"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="17" t="s">
         <v>34</v>
       </c>
@@ -5650,9 +5590,9 @@
       <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="26"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="17" t="s">
         <v>35</v>
       </c>
@@ -5664,9 +5604,9 @@
       <c r="H5" s="15"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="26"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="17" t="s">
         <v>36</v>
       </c>
@@ -5680,9 +5620,9 @@
       <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="26"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="17" t="s">
         <v>37</v>
       </c>
@@ -5696,9 +5636,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="26" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="32" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="17" t="s">
@@ -5714,9 +5654,9 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="26"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="17" t="s">
         <v>46</v>
       </c>
@@ -5728,13 +5668,13 @@
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="26" t="s">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="32" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>28</v>
@@ -5744,11 +5684,11 @@
       <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="26"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
@@ -5760,11 +5700,11 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="26"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
@@ -5776,11 +5716,11 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="27"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
@@ -5788,14 +5728,14 @@
       <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="28"/>
+      <c r="D14" s="31"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20" t="s">
         <v>28</v>
@@ -5806,9 +5746,9 @@
       <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="26" t="s">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="17" t="s">
@@ -5822,9 +5762,9 @@
       <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="26"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="17" t="s">
         <v>34</v>
       </c>
@@ -5836,9 +5776,9 @@
       <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="26"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="17" t="s">
         <v>35</v>
       </c>
@@ -5848,9 +5788,9 @@
       <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="26"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="17" t="s">
         <v>36</v>
       </c>
@@ -5866,9 +5806,9 @@
       <c r="H18" s="15"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="26"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="17" t="s">
         <v>37</v>
       </c>
@@ -5882,9 +5822,9 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="26" t="s">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="32" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="17" t="s">
@@ -5900,9 +5840,9 @@
       <c r="H20" s="15"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="26"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="17" t="s">
         <v>46</v>
       </c>
@@ -5918,13 +5858,13 @@
       <c r="H21" s="15"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="26" t="s">
-        <v>65</v>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="32" t="s">
+        <v>63</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
@@ -5932,11 +5872,11 @@
       <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="26"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="15" t="s">
@@ -5948,11 +5888,11 @@
       <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="26"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="32"/>
       <c r="D24" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
@@ -5962,11 +5902,11 @@
       <c r="H24" s="15"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="27"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
@@ -5974,14 +5914,14 @@
       <c r="H25" s="16"/>
     </row>
     <row r="26" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30" t="s">
+      <c r="A26" s="29"/>
+      <c r="B26" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="28"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="20" t="s">
         <v>27</v>
       </c>
@@ -5992,9 +5932,9 @@
       <c r="H26" s="20"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="26" t="s">
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D27" s="17" t="s">
@@ -6008,9 +5948,9 @@
       <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="26"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="32"/>
       <c r="D28" s="17" t="s">
         <v>34</v>
       </c>
@@ -6024,9 +5964,9 @@
       <c r="H28" s="15"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="26"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="32"/>
       <c r="D29" s="17" t="s">
         <v>35</v>
       </c>
@@ -6036,9 +5976,9 @@
       <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="26"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="32"/>
       <c r="D30" s="17" t="s">
         <v>36</v>
       </c>
@@ -6050,9 +5990,9 @@
       <c r="H30" s="15"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="26"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="32"/>
       <c r="D31" s="17" t="s">
         <v>37</v>
       </c>
@@ -6066,9 +6006,9 @@
       <c r="H31" s="15"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="26" t="s">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="32" t="s">
         <v>39</v>
       </c>
       <c r="D32" s="17" t="s">
@@ -6082,9 +6022,9 @@
       <c r="H32" s="15"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="26"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="32"/>
       <c r="D33" s="17" t="s">
         <v>46</v>
       </c>
@@ -6098,13 +6038,13 @@
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="26" t="s">
-        <v>65</v>
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="32" t="s">
+        <v>63</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
@@ -6112,11 +6052,11 @@
       <c r="H34" s="15"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="26"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>27</v>
@@ -6128,11 +6068,11 @@
       <c r="H35" s="15"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="26"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="32"/>
       <c r="D36" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
@@ -6140,11 +6080,11 @@
       <c r="H36" s="15"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="30"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="27"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="33"/>
       <c r="D37" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>27</v>
@@ -6154,14 +6094,14 @@
       <c r="H37" s="16"/>
     </row>
     <row r="38" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30" t="s">
+      <c r="A38" s="29"/>
+      <c r="B38" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="28"/>
+      <c r="D38" s="31"/>
       <c r="E38" s="20" t="s">
         <v>28</v>
       </c>
@@ -6174,9 +6114,9 @@
       <c r="H38" s="20"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="26" t="s">
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D39" s="17" t="s">
@@ -6190,9 +6130,9 @@
       <c r="H39" s="15"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="26"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="32"/>
       <c r="D40" s="17" t="s">
         <v>34</v>
       </c>
@@ -6202,9 +6142,9 @@
       <c r="H40" s="15"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="26"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="32"/>
       <c r="D41" s="17" t="s">
         <v>35</v>
       </c>
@@ -6214,9 +6154,9 @@
       <c r="H41" s="15"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="26"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="32"/>
       <c r="D42" s="17" t="s">
         <v>36</v>
       </c>
@@ -6232,9 +6172,9 @@
       <c r="H42" s="15"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="26"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="32"/>
       <c r="D43" s="17" t="s">
         <v>37</v>
       </c>
@@ -6248,9 +6188,9 @@
       <c r="H43" s="15"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="26" t="s">
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="32" t="s">
         <v>39</v>
       </c>
       <c r="D44" s="17" t="s">
@@ -6268,9 +6208,9 @@
       <c r="H44" s="15"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="26"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="32"/>
       <c r="D45" s="17" t="s">
         <v>46</v>
       </c>
@@ -6286,13 +6226,13 @@
       <c r="H45" s="15"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="30"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="26" t="s">
-        <v>65</v>
+      <c r="A46" s="29"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="32" t="s">
+        <v>63</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="15" t="s">
@@ -6304,29 +6244,29 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="30"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="26"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="32"/>
       <c r="D47" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H47" s="15"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="29"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="17" t="s">
         <v>50</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H47" s="15"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="30"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="17" t="s">
-        <v>51</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
@@ -6336,11 +6276,11 @@
       <c r="H48" s="15"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="30"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="27"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="33"/>
       <c r="D49" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
@@ -6348,14 +6288,14 @@
       <c r="H49" s="16"/>
     </row>
     <row r="50" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="30"/>
-      <c r="B50" s="30" t="s">
+      <c r="A50" s="29"/>
+      <c r="B50" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="28" t="s">
+      <c r="C50" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D50" s="28"/>
+      <c r="D50" s="31"/>
       <c r="E50" s="20" t="s">
         <v>27</v>
       </c>
@@ -6366,9 +6306,9 @@
       <c r="H50" s="20"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="30"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="26" t="s">
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D51" s="17" t="s">
@@ -6380,9 +6320,9 @@
       <c r="H51" s="15"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="30"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="26"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="32"/>
       <c r="D52" s="17" t="s">
         <v>34</v>
       </c>
@@ -6392,9 +6332,9 @@
       <c r="H52" s="15"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="30"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="26"/>
+      <c r="A53" s="29"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="32"/>
       <c r="D53" s="17" t="s">
         <v>35</v>
       </c>
@@ -6404,9 +6344,9 @@
       <c r="H53" s="15"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="30"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="26"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="32"/>
       <c r="D54" s="17" t="s">
         <v>36</v>
       </c>
@@ -6418,9 +6358,9 @@
       <c r="H54" s="15"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="30"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="26"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="32"/>
       <c r="D55" s="17" t="s">
         <v>37</v>
       </c>
@@ -6434,9 +6374,9 @@
       <c r="H55" s="15"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" s="30"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="26" t="s">
+      <c r="A56" s="29"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="32" t="s">
         <v>39</v>
       </c>
       <c r="D56" s="17" t="s">
@@ -6448,9 +6388,9 @@
       <c r="H56" s="15"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="30"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="26"/>
+      <c r="A57" s="29"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="32"/>
       <c r="D57" s="17" t="s">
         <v>46</v>
       </c>
@@ -6464,13 +6404,13 @@
       <c r="H57" s="15"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="30"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="26" t="s">
-        <v>65</v>
+      <c r="A58" s="29"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="32" t="s">
+        <v>63</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
@@ -6478,11 +6418,11 @@
       <c r="H58" s="15"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="30"/>
-      <c r="B59" s="30"/>
-      <c r="C59" s="26"/>
+      <c r="A59" s="29"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="32"/>
       <c r="D59" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E59" s="15"/>
       <c r="F59" s="15"/>
@@ -6492,11 +6432,11 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="30"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="26"/>
+      <c r="A60" s="29"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="32"/>
       <c r="D60" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
@@ -6504,11 +6444,11 @@
       <c r="H60" s="15"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A61" s="30"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="27"/>
+      <c r="A61" s="29"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="33"/>
       <c r="D61" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
@@ -6516,23 +6456,23 @@
       <c r="H61" s="16"/>
     </row>
     <row r="62" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="30"/>
-      <c r="B62" s="30" t="s">
+      <c r="A62" s="29"/>
+      <c r="B62" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C62" s="28" t="s">
+      <c r="C62" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D62" s="28"/>
+      <c r="D62" s="31"/>
       <c r="E62" s="21"/>
       <c r="F62" s="21"/>
       <c r="G62" s="21"/>
       <c r="H62" s="21"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A63" s="30"/>
-      <c r="B63" s="30"/>
-      <c r="C63" s="26" t="s">
+      <c r="A63" s="29"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D63" s="17" t="s">
@@ -6544,9 +6484,9 @@
       <c r="H63" s="15"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64" s="30"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="26"/>
+      <c r="A64" s="29"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="32"/>
       <c r="D64" s="17" t="s">
         <v>34</v>
       </c>
@@ -6556,9 +6496,9 @@
       <c r="H64" s="15"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A65" s="30"/>
-      <c r="B65" s="30"/>
-      <c r="C65" s="26"/>
+      <c r="A65" s="29"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="32"/>
       <c r="D65" s="17" t="s">
         <v>35</v>
       </c>
@@ -6570,9 +6510,9 @@
       <c r="H65" s="15"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A66" s="30"/>
-      <c r="B66" s="30"/>
-      <c r="C66" s="26"/>
+      <c r="A66" s="29"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="32"/>
       <c r="D66" s="17" t="s">
         <v>36</v>
       </c>
@@ -6584,9 +6524,9 @@
       <c r="H66" s="15"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A67" s="30"/>
-      <c r="B67" s="30"/>
-      <c r="C67" s="26"/>
+      <c r="A67" s="29"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="32"/>
       <c r="D67" s="17" t="s">
         <v>37</v>
       </c>
@@ -6596,9 +6536,9 @@
       <c r="H67" s="15"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A68" s="30"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="26" t="s">
+      <c r="A68" s="29"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="32" t="s">
         <v>39</v>
       </c>
       <c r="D68" s="17" t="s">
@@ -6610,9 +6550,9 @@
       <c r="H68" s="15"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A69" s="30"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="26"/>
+      <c r="A69" s="29"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="32"/>
       <c r="D69" s="17" t="s">
         <v>46</v>
       </c>
@@ -6622,13 +6562,13 @@
       <c r="H69" s="15"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A70" s="30"/>
-      <c r="B70" s="30"/>
-      <c r="C70" s="26" t="s">
-        <v>65</v>
+      <c r="A70" s="29"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="32" t="s">
+        <v>63</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E70" s="15"/>
       <c r="F70" s="15"/>
@@ -6636,11 +6576,11 @@
       <c r="H70" s="15"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A71" s="30"/>
-      <c r="B71" s="30"/>
-      <c r="C71" s="26"/>
+      <c r="A71" s="29"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="32"/>
       <c r="D71" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E71" s="15"/>
       <c r="F71" s="15"/>
@@ -6648,11 +6588,11 @@
       <c r="H71" s="15"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A72" s="30"/>
-      <c r="B72" s="30"/>
-      <c r="C72" s="26"/>
+      <c r="A72" s="29"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="32"/>
       <c r="D72" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E72" s="15"/>
       <c r="F72" s="15"/>
@@ -6660,11 +6600,11 @@
       <c r="H72" s="15"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A73" s="31"/>
-      <c r="B73" s="31"/>
-      <c r="C73" s="27"/>
+      <c r="A73" s="30"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="33"/>
       <c r="D73" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E73" s="16"/>
       <c r="F73" s="16"/>
@@ -6674,21 +6614,6 @@
     <row r="74" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="B50:B61"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="B62:B73"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="B38:B49"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C51:C55"/>
     <mergeCell ref="A2:A73"/>
     <mergeCell ref="B2:B13"/>
     <mergeCell ref="C2:D2"/>
@@ -6705,12 +6630,27 @@
     <mergeCell ref="B26:B37"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C39:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="B38:B49"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="B50:B61"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="B62:B73"/>
+    <mergeCell ref="C62:D62"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:H73">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6723,9 +6663,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E346CE06-F32E-448E-B00E-25EC7D45395D}">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L89" sqref="L89"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6752,25 +6692,25 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="29"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="26" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D3" s="17" t="s">
@@ -6782,9 +6722,9 @@
       <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="26"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="17" t="s">
         <v>34</v>
       </c>
@@ -6794,9 +6734,9 @@
       <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="26"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="17" t="s">
         <v>35</v>
       </c>
@@ -6808,9 +6748,9 @@
       <c r="H5" s="15"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="26"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="17" t="s">
         <v>36</v>
       </c>
@@ -6820,9 +6760,9 @@
       <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="26"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="17" t="s">
         <v>37</v>
       </c>
@@ -6834,9 +6774,9 @@
       <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="26" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="32" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="17" t="s">
@@ -6848,9 +6788,9 @@
       <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="26"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="17" t="s">
         <v>46</v>
       </c>
@@ -6860,13 +6800,13 @@
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="26" t="s">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="32" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
@@ -6874,11 +6814,11 @@
       <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="26"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
@@ -6886,11 +6826,11 @@
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="26"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
@@ -6898,11 +6838,11 @@
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="27"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
@@ -6910,14 +6850,14 @@
       <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="29"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="3" t="s">
         <v>27</v>
       </c>
@@ -6930,9 +6870,9 @@
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="26" t="s">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="17" t="s">
@@ -6944,9 +6884,9 @@
       <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="26"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="17" t="s">
         <v>34</v>
       </c>
@@ -6958,9 +6898,9 @@
       <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="26"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="17" t="s">
         <v>35</v>
       </c>
@@ -6970,9 +6910,9 @@
       <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="26"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="17" t="s">
         <v>36</v>
       </c>
@@ -6984,9 +6924,9 @@
       <c r="H18" s="15"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="26"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="17" t="s">
         <v>37</v>
       </c>
@@ -6998,9 +6938,9 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="26" t="s">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="32" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="17" t="s">
@@ -7018,9 +6958,9 @@
       <c r="H20" s="15"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="26"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="17" t="s">
         <v>46</v>
       </c>
@@ -7036,13 +6976,13 @@
       <c r="H21" s="15"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="26" t="s">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="32" t="s">
         <v>48</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
@@ -7050,11 +6990,11 @@
       <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="26"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
@@ -7064,11 +7004,11 @@
       <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="26"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="32"/>
       <c r="D24" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="15" t="s">
@@ -7080,11 +7020,11 @@
       <c r="H24" s="15"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="27"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
@@ -7092,23 +7032,23 @@
       <c r="H25" s="16"/>
     </row>
     <row r="26" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="29" t="s">
+      <c r="A26" s="29"/>
+      <c r="B26" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="29"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="26" t="s">
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D27" s="17" t="s">
@@ -7120,9 +7060,9 @@
       <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="26"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="32"/>
       <c r="D28" s="17" t="s">
         <v>34</v>
       </c>
@@ -7136,9 +7076,9 @@
       <c r="H28" s="15"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="26"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="32"/>
       <c r="D29" s="17" t="s">
         <v>35</v>
       </c>
@@ -7148,9 +7088,9 @@
       <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="26"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="32"/>
       <c r="D30" s="17" t="s">
         <v>36</v>
       </c>
@@ -7162,9 +7102,9 @@
       <c r="H30" s="15"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="26"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="32"/>
       <c r="D31" s="17" t="s">
         <v>37</v>
       </c>
@@ -7174,9 +7114,9 @@
       <c r="H31" s="15"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="26" t="s">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="32" t="s">
         <v>39</v>
       </c>
       <c r="D32" s="17" t="s">
@@ -7188,9 +7128,9 @@
       <c r="H32" s="15"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="26"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="32"/>
       <c r="D33" s="17" t="s">
         <v>46</v>
       </c>
@@ -7202,13 +7142,13 @@
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="26" t="s">
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="32" t="s">
         <v>48</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="15" t="s">
@@ -7220,11 +7160,11 @@
       <c r="H34" s="15"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="26"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
@@ -7232,11 +7172,11 @@
       <c r="H35" s="15"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="26"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="32"/>
       <c r="D36" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
@@ -7244,11 +7184,11 @@
       <c r="H36" s="15"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="30"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="27"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="33"/>
       <c r="D37" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
@@ -7256,23 +7196,23 @@
       <c r="H37" s="16"/>
     </row>
     <row r="38" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="29" t="s">
+      <c r="A38" s="29"/>
+      <c r="B38" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="29"/>
+      <c r="D38" s="28"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="26" t="s">
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D39" s="17" t="s">
@@ -7284,9 +7224,9 @@
       <c r="H39" s="15"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="26"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="32"/>
       <c r="D40" s="17" t="s">
         <v>34</v>
       </c>
@@ -7300,9 +7240,9 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="26"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="32"/>
       <c r="D41" s="17" t="s">
         <v>35</v>
       </c>
@@ -7314,9 +7254,9 @@
       <c r="H41" s="15"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="26"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="32"/>
       <c r="D42" s="17" t="s">
         <v>36</v>
       </c>
@@ -7326,9 +7266,9 @@
       <c r="H42" s="15"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="26"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="32"/>
       <c r="D43" s="17" t="s">
         <v>37</v>
       </c>
@@ -7338,9 +7278,9 @@
       <c r="H43" s="15"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="26" t="s">
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="32" t="s">
         <v>39</v>
       </c>
       <c r="D44" s="17" t="s">
@@ -7352,9 +7292,9 @@
       <c r="H44" s="15"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="26"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="32"/>
       <c r="D45" s="17" t="s">
         <v>46</v>
       </c>
@@ -7364,13 +7304,13 @@
       <c r="H45" s="15"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="30"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="26" t="s">
+      <c r="A46" s="29"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="32" t="s">
         <v>48</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
@@ -7378,11 +7318,11 @@
       <c r="H46" s="15"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="30"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="26"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="32"/>
       <c r="D47" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
@@ -7390,11 +7330,11 @@
       <c r="H47" s="15"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="30"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="26"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="32"/>
       <c r="D48" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
@@ -7402,11 +7342,11 @@
       <c r="H48" s="15"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="30"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="27"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="33"/>
       <c r="D49" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
@@ -7414,14 +7354,14 @@
       <c r="H49" s="16"/>
     </row>
     <row r="50" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="30"/>
-      <c r="B50" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="C50" s="29" t="s">
+      <c r="A50" s="29"/>
+      <c r="B50" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D50" s="29"/>
+      <c r="D50" s="28"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3" t="s">
         <v>28</v>
@@ -7429,9 +7369,9 @@
       <c r="G50" s="3"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="30"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="26" t="s">
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D51" s="17" t="s">
@@ -7444,9 +7384,9 @@
       <c r="H51" s="15"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="30"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="26"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="32"/>
       <c r="D52" s="17" t="s">
         <v>34</v>
       </c>
@@ -7456,9 +7396,9 @@
       <c r="H52" s="15"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="30"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="26"/>
+      <c r="A53" s="29"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="32"/>
       <c r="D53" s="17" t="s">
         <v>35</v>
       </c>
@@ -7468,9 +7408,9 @@
       <c r="H53" s="15"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="30"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="26"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="32"/>
       <c r="D54" s="17" t="s">
         <v>36</v>
       </c>
@@ -7480,9 +7420,9 @@
       <c r="H54" s="15"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="30"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="26"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="32"/>
       <c r="D55" s="17" t="s">
         <v>37</v>
       </c>
@@ -7492,9 +7432,9 @@
       <c r="H55" s="15"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" s="30"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="26" t="s">
+      <c r="A56" s="29"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="32" t="s">
         <v>39</v>
       </c>
       <c r="D56" s="17" t="s">
@@ -7506,9 +7446,9 @@
       <c r="H56" s="15"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="30"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="26"/>
+      <c r="A57" s="29"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="32"/>
       <c r="D57" s="17" t="s">
         <v>46</v>
       </c>
@@ -7520,13 +7460,13 @@
       <c r="H57" s="15"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="30"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="26" t="s">
+      <c r="A58" s="29"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="32" t="s">
         <v>48</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
@@ -7534,11 +7474,11 @@
       <c r="H58" s="15"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="30"/>
-      <c r="B59" s="30"/>
-      <c r="C59" s="26"/>
+      <c r="A59" s="29"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="32"/>
       <c r="D59" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E59" s="15"/>
       <c r="F59" s="15"/>
@@ -7548,11 +7488,11 @@
       <c r="H59" s="15"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="30"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="26"/>
+      <c r="A60" s="29"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="32"/>
       <c r="D60" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
@@ -7560,11 +7500,11 @@
       <c r="H60" s="15"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A61" s="30"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="27"/>
+      <c r="A61" s="29"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="33"/>
       <c r="D61" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
@@ -7572,23 +7512,23 @@
       <c r="H61" s="16"/>
     </row>
     <row r="62" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="30"/>
-      <c r="B62" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C62" s="29" t="s">
+      <c r="A62" s="29"/>
+      <c r="B62" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D62" s="29"/>
+      <c r="D62" s="28"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A63" s="30"/>
-      <c r="B63" s="30"/>
-      <c r="C63" s="26" t="s">
+      <c r="A63" s="29"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D63" s="17" t="s">
@@ -7600,9 +7540,9 @@
       <c r="H63" s="15"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64" s="30"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="26"/>
+      <c r="A64" s="29"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="32"/>
       <c r="D64" s="17" t="s">
         <v>34</v>
       </c>
@@ -7614,9 +7554,9 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A65" s="30"/>
-      <c r="B65" s="30"/>
-      <c r="C65" s="26"/>
+      <c r="A65" s="29"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="32"/>
       <c r="D65" s="17" t="s">
         <v>35</v>
       </c>
@@ -7628,9 +7568,9 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A66" s="30"/>
-      <c r="B66" s="30"/>
-      <c r="C66" s="26"/>
+      <c r="A66" s="29"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="32"/>
       <c r="D66" s="17" t="s">
         <v>36</v>
       </c>
@@ -7642,9 +7582,9 @@
       <c r="H66" s="15"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A67" s="30"/>
-      <c r="B67" s="30"/>
-      <c r="C67" s="26"/>
+      <c r="A67" s="29"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="32"/>
       <c r="D67" s="17" t="s">
         <v>37</v>
       </c>
@@ -7658,9 +7598,9 @@
       <c r="H67" s="15"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A68" s="30"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="26" t="s">
+      <c r="A68" s="29"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="32" t="s">
         <v>39</v>
       </c>
       <c r="D68" s="17" t="s">
@@ -7672,9 +7612,9 @@
       <c r="H68" s="15"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A69" s="30"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="26"/>
+      <c r="A69" s="29"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="32"/>
       <c r="D69" s="17" t="s">
         <v>46</v>
       </c>
@@ -7684,13 +7624,13 @@
       <c r="H69" s="15"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A70" s="30"/>
-      <c r="B70" s="30"/>
-      <c r="C70" s="26" t="s">
+      <c r="A70" s="29"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="32" t="s">
         <v>48</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E70" s="15"/>
       <c r="F70" s="15"/>
@@ -7698,11 +7638,11 @@
       <c r="H70" s="15"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A71" s="30"/>
-      <c r="B71" s="30"/>
-      <c r="C71" s="26"/>
+      <c r="A71" s="29"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="32"/>
       <c r="D71" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E71" s="15"/>
       <c r="F71" s="15"/>
@@ -7710,11 +7650,11 @@
       <c r="H71" s="15"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A72" s="30"/>
-      <c r="B72" s="30"/>
-      <c r="C72" s="26"/>
+      <c r="A72" s="29"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="32"/>
       <c r="D72" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E72" s="15"/>
       <c r="F72" s="15" t="s">
@@ -7724,11 +7664,11 @@
       <c r="H72" s="15"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A73" s="30"/>
-      <c r="B73" s="31"/>
-      <c r="C73" s="27"/>
+      <c r="A73" s="29"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="33"/>
       <c r="D73" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E73" s="16"/>
       <c r="F73" s="16"/>
@@ -7736,23 +7676,23 @@
       <c r="H73" s="16"/>
     </row>
     <row r="74" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="30"/>
-      <c r="B74" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C74" s="29" t="s">
+      <c r="A74" s="29"/>
+      <c r="B74" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C74" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D74" s="29"/>
+      <c r="D74" s="28"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A75" s="30"/>
-      <c r="B75" s="30"/>
-      <c r="C75" s="26" t="s">
+      <c r="A75" s="29"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D75" s="17" t="s">
@@ -7764,9 +7704,9 @@
       <c r="H75" s="15"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A76" s="30"/>
-      <c r="B76" s="30"/>
-      <c r="C76" s="26"/>
+      <c r="A76" s="29"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="32"/>
       <c r="D76" s="17" t="s">
         <v>34</v>
       </c>
@@ -7776,9 +7716,9 @@
       <c r="H76" s="15"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A77" s="30"/>
-      <c r="B77" s="30"/>
-      <c r="C77" s="26"/>
+      <c r="A77" s="29"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="32"/>
       <c r="D77" s="17" t="s">
         <v>35</v>
       </c>
@@ -7788,9 +7728,9 @@
       <c r="H77" s="15"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A78" s="30"/>
-      <c r="B78" s="30"/>
-      <c r="C78" s="26"/>
+      <c r="A78" s="29"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="32"/>
       <c r="D78" s="17" t="s">
         <v>36</v>
       </c>
@@ -7800,9 +7740,9 @@
       <c r="H78" s="15"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A79" s="30"/>
-      <c r="B79" s="30"/>
-      <c r="C79" s="26"/>
+      <c r="A79" s="29"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="32"/>
       <c r="D79" s="17" t="s">
         <v>37</v>
       </c>
@@ -7814,9 +7754,9 @@
       <c r="H79" s="15"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A80" s="30"/>
-      <c r="B80" s="30"/>
-      <c r="C80" s="26" t="s">
+      <c r="A80" s="29"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="32" t="s">
         <v>39</v>
       </c>
       <c r="D80" s="17" t="s">
@@ -7830,9 +7770,9 @@
       <c r="H80" s="15"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A81" s="30"/>
-      <c r="B81" s="30"/>
-      <c r="C81" s="26"/>
+      <c r="A81" s="29"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="32"/>
       <c r="D81" s="17" t="s">
         <v>46</v>
       </c>
@@ -7842,13 +7782,13 @@
       <c r="H81" s="15"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A82" s="30"/>
-      <c r="B82" s="30"/>
-      <c r="C82" s="26" t="s">
+      <c r="A82" s="29"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="32" t="s">
         <v>48</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15" t="s">
@@ -7860,11 +7800,11 @@
       <c r="H82" s="15"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A83" s="30"/>
-      <c r="B83" s="30"/>
-      <c r="C83" s="26"/>
+      <c r="A83" s="29"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="32"/>
       <c r="D83" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
@@ -7872,11 +7812,11 @@
       <c r="H83" s="15"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A84" s="30"/>
-      <c r="B84" s="30"/>
-      <c r="C84" s="26"/>
+      <c r="A84" s="29"/>
+      <c r="B84" s="29"/>
+      <c r="C84" s="32"/>
       <c r="D84" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
@@ -7884,11 +7824,11 @@
       <c r="H84" s="15"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A85" s="30"/>
-      <c r="B85" s="31"/>
-      <c r="C85" s="27"/>
+      <c r="A85" s="29"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="33"/>
       <c r="D85" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E85" s="16"/>
       <c r="F85" s="16"/>
@@ -7896,14 +7836,14 @@
       <c r="H85" s="16"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A86" s="30"/>
-      <c r="B86" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C86" s="29" t="s">
+      <c r="A86" s="29"/>
+      <c r="B86" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C86" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D86" s="29"/>
+      <c r="D86" s="28"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3" t="s">
@@ -7911,9 +7851,9 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A87" s="30"/>
-      <c r="B87" s="30"/>
-      <c r="C87" s="26" t="s">
+      <c r="A87" s="29"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D87" s="17" t="s">
@@ -7925,9 +7865,9 @@
       <c r="H87" s="15"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A88" s="30"/>
-      <c r="B88" s="30"/>
-      <c r="C88" s="26"/>
+      <c r="A88" s="29"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="32"/>
       <c r="D88" s="17" t="s">
         <v>34</v>
       </c>
@@ -7941,9 +7881,9 @@
       <c r="H88" s="15"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A89" s="30"/>
-      <c r="B89" s="30"/>
-      <c r="C89" s="26"/>
+      <c r="A89" s="29"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="32"/>
       <c r="D89" s="17" t="s">
         <v>35</v>
       </c>
@@ -7955,9 +7895,9 @@
       <c r="H89" s="15"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A90" s="30"/>
-      <c r="B90" s="30"/>
-      <c r="C90" s="26"/>
+      <c r="A90" s="29"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="32"/>
       <c r="D90" s="17" t="s">
         <v>36</v>
       </c>
@@ -7969,9 +7909,9 @@
       <c r="H90" s="15"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A91" s="30"/>
-      <c r="B91" s="30"/>
-      <c r="C91" s="26"/>
+      <c r="A91" s="29"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="32"/>
       <c r="D91" s="17" t="s">
         <v>37</v>
       </c>
@@ -7983,9 +7923,9 @@
       <c r="H91" s="15"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A92" s="30"/>
-      <c r="B92" s="30"/>
-      <c r="C92" s="26" t="s">
+      <c r="A92" s="29"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="32" t="s">
         <v>39</v>
       </c>
       <c r="D92" s="17" t="s">
@@ -7997,9 +7937,9 @@
       <c r="H92" s="15"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A93" s="30"/>
-      <c r="B93" s="30"/>
-      <c r="C93" s="26"/>
+      <c r="A93" s="29"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="32"/>
       <c r="D93" s="17" t="s">
         <v>46</v>
       </c>
@@ -8009,13 +7949,13 @@
       <c r="H93" s="15"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A94" s="30"/>
-      <c r="B94" s="30"/>
-      <c r="C94" s="26" t="s">
+      <c r="A94" s="29"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="32" t="s">
         <v>48</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E94" s="15"/>
       <c r="F94" s="15"/>
@@ -8023,11 +7963,11 @@
       <c r="H94" s="15"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A95" s="30"/>
-      <c r="B95" s="30"/>
-      <c r="C95" s="26"/>
+      <c r="A95" s="29"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="32"/>
       <c r="D95" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E95" s="15"/>
       <c r="F95" s="15"/>
@@ -8037,11 +7977,11 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A96" s="30"/>
-      <c r="B96" s="30"/>
-      <c r="C96" s="26"/>
+      <c r="A96" s="29"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="32"/>
       <c r="D96" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E96" s="15"/>
       <c r="F96" s="15"/>
@@ -8049,11 +7989,11 @@
       <c r="H96" s="15"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A97" s="31"/>
-      <c r="B97" s="31"/>
-      <c r="C97" s="27"/>
+      <c r="A97" s="30"/>
+      <c r="B97" s="30"/>
+      <c r="C97" s="33"/>
       <c r="D97" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E97" s="16"/>
       <c r="F97" s="16"/>
@@ -8062,31 +8002,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B86:B97"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:C91"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="B74:B85"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:C79"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="B62:B73"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="B50:B61"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="B38:B49"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C51:C55"/>
     <mergeCell ref="A2:A97"/>
     <mergeCell ref="B2:B13"/>
     <mergeCell ref="C2:D2"/>
@@ -8103,12 +8018,37 @@
     <mergeCell ref="B26:B37"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C39:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="B38:B49"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="B50:B61"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="B62:B73"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="B74:B85"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:C79"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="B86:B97"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:C91"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C94:C97"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:H50 E51 G51:H51 E52:H97">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8123,7 +8063,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:H61"/>
+      <selection pane="bottomLeft" activeCell="U50" sqref="U50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8150,16 +8090,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="28" t="s">
+      <c r="A2" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="28"/>
+      <c r="D2" s="31"/>
       <c r="E2" s="19" t="s">
         <v>27</v>
       </c>
@@ -8170,9 +8110,9 @@
       <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="26" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D3" s="17" t="s">
@@ -8186,9 +8126,9 @@
       <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="26"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="17" t="s">
         <v>34</v>
       </c>
@@ -8200,9 +8140,9 @@
       <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="26"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="17" t="s">
         <v>35</v>
       </c>
@@ -8214,9 +8154,9 @@
       <c r="H5" s="15"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="26"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="17" t="s">
         <v>36</v>
       </c>
@@ -8228,9 +8168,9 @@
       <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="26"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="17" t="s">
         <v>37</v>
       </c>
@@ -8244,9 +8184,9 @@
       <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="26" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="32" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="17" t="s">
@@ -8262,9 +8202,9 @@
       <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="26"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="17" t="s">
         <v>46</v>
       </c>
@@ -8276,13 +8216,13 @@
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="26" t="s">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="32" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
@@ -8290,11 +8230,11 @@
       <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="26"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>27</v>
@@ -8304,11 +8244,11 @@
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="26"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
@@ -8318,11 +8258,11 @@
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="27"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
@@ -8330,14 +8270,14 @@
       <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="28" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="28"/>
+      <c r="D14" s="31"/>
       <c r="E14" s="20" t="s">
         <v>27</v>
       </c>
@@ -8350,9 +8290,9 @@
       <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="26" t="s">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="17" t="s">
@@ -8366,9 +8306,9 @@
       <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="26"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="17" t="s">
         <v>34</v>
       </c>
@@ -8380,9 +8320,9 @@
       <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="26"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="17" t="s">
         <v>35</v>
       </c>
@@ -8392,9 +8332,9 @@
       <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="26"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="17" t="s">
         <v>36</v>
       </c>
@@ -8408,9 +8348,9 @@
       <c r="H18" s="15"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="26"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="17" t="s">
         <v>37</v>
       </c>
@@ -8422,9 +8362,9 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="26" t="s">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="32" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="17" t="s">
@@ -8440,9 +8380,9 @@
       <c r="H20" s="15"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="26"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="17" t="s">
         <v>46</v>
       </c>
@@ -8456,13 +8396,13 @@
       <c r="H21" s="15"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="26" t="s">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="32" t="s">
         <v>48</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
@@ -8470,11 +8410,11 @@
       <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="26"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>27</v>
@@ -8488,11 +8428,11 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="26"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="32"/>
       <c r="D24" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="15" t="s">
@@ -8504,11 +8444,11 @@
       <c r="H24" s="15"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="27"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
@@ -8516,23 +8456,23 @@
       <c r="H25" s="16"/>
     </row>
     <row r="26" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="28" t="s">
+      <c r="A26" s="29"/>
+      <c r="B26" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="28"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="26" t="s">
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D27" s="17" t="s">
@@ -8544,9 +8484,9 @@
       <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="26"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="32"/>
       <c r="D28" s="17" t="s">
         <v>34</v>
       </c>
@@ -8556,9 +8496,9 @@
       <c r="H28" s="15"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="26"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="32"/>
       <c r="D29" s="17" t="s">
         <v>35</v>
       </c>
@@ -8570,9 +8510,9 @@
       <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="26"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="32"/>
       <c r="D30" s="17" t="s">
         <v>36</v>
       </c>
@@ -8582,9 +8522,9 @@
       <c r="H30" s="15"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="26"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="32"/>
       <c r="D31" s="17" t="s">
         <v>37</v>
       </c>
@@ -8594,9 +8534,9 @@
       <c r="H31" s="15"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="26" t="s">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="32" t="s">
         <v>39</v>
       </c>
       <c r="D32" s="17" t="s">
@@ -8608,9 +8548,9 @@
       <c r="H32" s="15"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="26"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="32"/>
       <c r="D33" s="17" t="s">
         <v>46</v>
       </c>
@@ -8620,13 +8560,13 @@
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="26" t="s">
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="32" t="s">
         <v>48</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
@@ -8636,11 +8576,11 @@
       <c r="H34" s="15"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="26"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
@@ -8648,11 +8588,11 @@
       <c r="H35" s="15"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="26"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="32"/>
       <c r="D36" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
@@ -8660,11 +8600,11 @@
       <c r="H36" s="15"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="30"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="27"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="33"/>
       <c r="D37" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>28</v>
@@ -8674,14 +8614,14 @@
       <c r="H37" s="16"/>
     </row>
     <row r="38" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" s="28" t="s">
+      <c r="A38" s="29"/>
+      <c r="B38" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="28"/>
+      <c r="D38" s="31"/>
       <c r="E38" s="20"/>
       <c r="F38" s="20"/>
       <c r="G38" s="20" t="s">
@@ -8690,9 +8630,9 @@
       <c r="H38" s="20"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="26" t="s">
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D39" s="17" t="s">
@@ -8704,9 +8644,9 @@
       <c r="H39" s="15"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="26"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="32"/>
       <c r="D40" s="17" t="s">
         <v>34</v>
       </c>
@@ -8716,9 +8656,9 @@
       <c r="H40" s="15"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="26"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="32"/>
       <c r="D41" s="17" t="s">
         <v>35</v>
       </c>
@@ -8728,9 +8668,9 @@
       <c r="H41" s="15"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="26"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="32"/>
       <c r="D42" s="17" t="s">
         <v>36</v>
       </c>
@@ -8740,9 +8680,9 @@
       <c r="H42" s="15"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="26"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="32"/>
       <c r="D43" s="17" t="s">
         <v>37</v>
       </c>
@@ -8752,9 +8692,9 @@
       <c r="H43" s="15"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="26" t="s">
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="32" t="s">
         <v>39</v>
       </c>
       <c r="D44" s="17" t="s">
@@ -8766,9 +8706,9 @@
       <c r="H44" s="15"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="26"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="32"/>
       <c r="D45" s="17" t="s">
         <v>46</v>
       </c>
@@ -8778,13 +8718,13 @@
       <c r="H45" s="15"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="30"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="26" t="s">
+      <c r="A46" s="29"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="32" t="s">
         <v>48</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
@@ -8792,11 +8732,11 @@
       <c r="H46" s="15"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="30"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="26"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="32"/>
       <c r="D47" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
@@ -8806,11 +8746,11 @@
       <c r="H47" s="15"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="30"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="26"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="32"/>
       <c r="D48" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E48" s="15" t="s">
         <v>28</v>
@@ -8820,11 +8760,11 @@
       <c r="H48" s="15"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="30"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="27"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="33"/>
       <c r="D49" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
@@ -8832,14 +8772,14 @@
       <c r="H49" s="16"/>
     </row>
     <row r="50" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="30"/>
-      <c r="B50" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="C50" s="28" t="s">
+      <c r="A50" s="29"/>
+      <c r="B50" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D50" s="28"/>
+      <c r="D50" s="31"/>
       <c r="E50" s="20"/>
       <c r="F50" s="20" t="s">
         <v>28</v>
@@ -8848,9 +8788,9 @@
       <c r="H50" s="20"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="30"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="26" t="s">
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D51" s="17" t="s">
@@ -8862,9 +8802,9 @@
       <c r="H51" s="15"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="30"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="26"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="32"/>
       <c r="D52" s="17" t="s">
         <v>34</v>
       </c>
@@ -8874,9 +8814,9 @@
       <c r="H52" s="15"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="30"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="26"/>
+      <c r="A53" s="29"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="32"/>
       <c r="D53" s="17" t="s">
         <v>35</v>
       </c>
@@ -8886,9 +8826,9 @@
       <c r="H53" s="15"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="30"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="26"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="32"/>
       <c r="D54" s="17" t="s">
         <v>36</v>
       </c>
@@ -8900,9 +8840,9 @@
       <c r="H54" s="15"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="30"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="26"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="32"/>
       <c r="D55" s="17" t="s">
         <v>37</v>
       </c>
@@ -8912,9 +8852,9 @@
       <c r="H55" s="15"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" s="30"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="26" t="s">
+      <c r="A56" s="29"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="32" t="s">
         <v>39</v>
       </c>
       <c r="D56" s="17" t="s">
@@ -8928,9 +8868,9 @@
       <c r="H56" s="15"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="30"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="26"/>
+      <c r="A57" s="29"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="32"/>
       <c r="D57" s="17" t="s">
         <v>46</v>
       </c>
@@ -8942,13 +8882,13 @@
       <c r="H57" s="15"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="30"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="26" t="s">
+      <c r="A58" s="29"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="32" t="s">
         <v>48</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
@@ -8956,11 +8896,11 @@
       <c r="H58" s="15"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="30"/>
-      <c r="B59" s="30"/>
-      <c r="C59" s="26"/>
+      <c r="A59" s="29"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="32"/>
       <c r="D59" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E59" s="15"/>
       <c r="F59" s="15" t="s">
@@ -8970,11 +8910,11 @@
       <c r="H59" s="15"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="30"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="26"/>
+      <c r="A60" s="29"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="32"/>
       <c r="D60" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
@@ -8982,11 +8922,11 @@
       <c r="H60" s="15"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A61" s="31"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="27"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="33"/>
       <c r="D61" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
@@ -9043,16 +8983,6 @@
     <row r="74" spans="3:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="B38:B49"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="B50:B61"/>
-    <mergeCell ref="C50:D50"/>
     <mergeCell ref="A2:A61"/>
     <mergeCell ref="B2:B13"/>
     <mergeCell ref="C2:D2"/>
@@ -9069,12 +8999,22 @@
     <mergeCell ref="B26:B37"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C39:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="B38:B49"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="B50:B61"/>
+    <mergeCell ref="C50:D50"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:H61">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9087,9 +9027,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5767851-B0EC-4642-969B-AC8C0A3FAA02}">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M21" sqref="M21"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9116,16 +9056,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="28" t="s">
+      <c r="A2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="28"/>
+      <c r="D2" s="31"/>
       <c r="E2" s="19" t="s">
         <v>27</v>
       </c>
@@ -9136,9 +9076,9 @@
       <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="26" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D3" s="17" t="s">
@@ -9152,9 +9092,9 @@
       <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="26"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="17" t="s">
         <v>34</v>
       </c>
@@ -9164,9 +9104,9 @@
       <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="26"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="17" t="s">
         <v>35</v>
       </c>
@@ -9178,9 +9118,9 @@
       <c r="H5" s="15"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="26"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="17" t="s">
         <v>36</v>
       </c>
@@ -9192,9 +9132,9 @@
       <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="26"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="17" t="s">
         <v>37</v>
       </c>
@@ -9206,9 +9146,9 @@
       <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="26" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="32" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="17" t="s">
@@ -9220,9 +9160,9 @@
       <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="26"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="17" t="s">
         <v>46</v>
       </c>
@@ -9236,13 +9176,13 @@
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="26" t="s">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="32" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
@@ -9252,11 +9192,11 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="26"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
@@ -9264,11 +9204,11 @@
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="26"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
@@ -9276,11 +9216,11 @@
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="27"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
@@ -9288,14 +9228,14 @@
       <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="28" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="28"/>
+      <c r="D14" s="31"/>
       <c r="E14" s="20" t="s">
         <v>27</v>
       </c>
@@ -9308,9 +9248,9 @@
       <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="26" t="s">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="17" t="s">
@@ -9324,9 +9264,9 @@
       <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="26"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="17" t="s">
         <v>34</v>
       </c>
@@ -9336,9 +9276,9 @@
       <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="26"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="17" t="s">
         <v>35</v>
       </c>
@@ -9350,9 +9290,9 @@
       <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="26"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="17" t="s">
         <v>36</v>
       </c>
@@ -9366,9 +9306,9 @@
       <c r="H18" s="15"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="26"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="17" t="s">
         <v>37</v>
       </c>
@@ -9380,9 +9320,9 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="26" t="s">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="32" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="17" t="s">
@@ -9396,9 +9336,9 @@
       <c r="H20" s="15"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="26"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="17" t="s">
         <v>46</v>
       </c>
@@ -9414,13 +9354,13 @@
       <c r="H21" s="15"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="26" t="s">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="32" t="s">
         <v>48</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>28</v>
@@ -9430,29 +9370,29 @@
       <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="26"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="17" t="s">
         <v>50</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="15"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="17" t="s">
-        <v>51</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
@@ -9464,11 +9404,11 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="27"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
@@ -9476,23 +9416,23 @@
       <c r="H25" s="16"/>
     </row>
     <row r="26" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="28" t="s">
+      <c r="A26" s="29"/>
+      <c r="B26" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="28"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="26" t="s">
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D27" s="17" t="s">
@@ -9504,9 +9444,9 @@
       <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="26"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="32"/>
       <c r="D28" s="17" t="s">
         <v>34</v>
       </c>
@@ -9518,9 +9458,9 @@
       <c r="H28" s="15"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="26"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="32"/>
       <c r="D29" s="17" t="s">
         <v>35</v>
       </c>
@@ -9530,9 +9470,9 @@
       <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="26"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="32"/>
       <c r="D30" s="17" t="s">
         <v>36</v>
       </c>
@@ -9544,9 +9484,9 @@
       <c r="H30" s="15"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="26"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="32"/>
       <c r="D31" s="17" t="s">
         <v>37</v>
       </c>
@@ -9556,9 +9496,9 @@
       <c r="H31" s="15"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="26" t="s">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="32" t="s">
         <v>39</v>
       </c>
       <c r="D32" s="17" t="s">
@@ -9570,9 +9510,9 @@
       <c r="H32" s="15"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="26"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="32"/>
       <c r="D33" s="17" t="s">
         <v>46</v>
       </c>
@@ -9582,13 +9522,13 @@
       <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="26" t="s">
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="32" t="s">
         <v>48</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
@@ -9596,11 +9536,11 @@
       <c r="H34" s="15"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="26"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
@@ -9608,11 +9548,11 @@
       <c r="H35" s="15"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="26"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="32"/>
       <c r="D36" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
@@ -9620,11 +9560,11 @@
       <c r="H36" s="15"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="30"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="27"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="33"/>
       <c r="D37" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
@@ -9632,14 +9572,14 @@
       <c r="H37" s="16"/>
     </row>
     <row r="38" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" s="28" t="s">
+      <c r="A38" s="29"/>
+      <c r="B38" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="28"/>
+      <c r="D38" s="31"/>
       <c r="E38" s="20" t="s">
         <v>28</v>
       </c>
@@ -9650,9 +9590,9 @@
       <c r="H38" s="20"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="26" t="s">
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D39" s="17" t="s">
@@ -9664,9 +9604,9 @@
       <c r="H39" s="15"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="26"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="32"/>
       <c r="D40" s="17" t="s">
         <v>34</v>
       </c>
@@ -9678,9 +9618,9 @@
       <c r="H40" s="15"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="26"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="32"/>
       <c r="D41" s="17" t="s">
         <v>35</v>
       </c>
@@ -9692,9 +9632,9 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="26"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="32"/>
       <c r="D42" s="17" t="s">
         <v>36</v>
       </c>
@@ -9704,9 +9644,9 @@
       <c r="H42" s="15"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="26"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="32"/>
       <c r="D43" s="17" t="s">
         <v>37</v>
       </c>
@@ -9718,9 +9658,9 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="26" t="s">
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="32" t="s">
         <v>39</v>
       </c>
       <c r="D44" s="17" t="s">
@@ -9734,9 +9674,9 @@
       <c r="H44" s="15"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="26"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="32"/>
       <c r="D45" s="17" t="s">
         <v>46</v>
       </c>
@@ -9748,13 +9688,13 @@
       <c r="H45" s="15"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="30"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="26" t="s">
+      <c r="A46" s="29"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="32" t="s">
         <v>48</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
@@ -9762,11 +9702,11 @@
       <c r="H46" s="15"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="30"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="26"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="32"/>
       <c r="D47" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
@@ -9774,11 +9714,11 @@
       <c r="H47" s="15"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="30"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="26"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="32"/>
       <c r="D48" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
@@ -9786,11 +9726,11 @@
       <c r="H48" s="15"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="30"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="27"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="33"/>
       <c r="D49" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
@@ -9798,14 +9738,14 @@
       <c r="H49" s="16"/>
     </row>
     <row r="50" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="30"/>
-      <c r="B50" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="C50" s="28" t="s">
+      <c r="A50" s="29"/>
+      <c r="B50" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D50" s="28"/>
+      <c r="D50" s="31"/>
       <c r="E50" s="20"/>
       <c r="F50" s="20" t="s">
         <v>28</v>
@@ -9818,9 +9758,9 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="30"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="26" t="s">
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="32" t="s">
         <v>45</v>
       </c>
       <c r="D51" s="17" t="s">
@@ -9832,9 +9772,9 @@
       <c r="H51" s="15"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="30"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="26"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="32"/>
       <c r="D52" s="17" t="s">
         <v>34</v>
       </c>
@@ -9844,9 +9784,9 @@
       <c r="H52" s="15"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="30"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="26"/>
+      <c r="A53" s="29"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="32"/>
       <c r="D53" s="17" t="s">
         <v>35</v>
       </c>
@@ -9856,9 +9796,9 @@
       <c r="H53" s="15"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="30"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="26"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="32"/>
       <c r="D54" s="17" t="s">
         <v>36</v>
       </c>
@@ -9868,9 +9808,9 @@
       <c r="H54" s="15"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="30"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="26"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="32"/>
       <c r="D55" s="17" t="s">
         <v>37</v>
       </c>
@@ -9882,9 +9822,9 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" s="30"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="26" t="s">
+      <c r="A56" s="29"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="32" t="s">
         <v>39</v>
       </c>
       <c r="D56" s="17" t="s">
@@ -9898,9 +9838,9 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="30"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="26"/>
+      <c r="A57" s="29"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="32"/>
       <c r="D57" s="17" t="s">
         <v>46</v>
       </c>
@@ -9912,13 +9852,13 @@
       <c r="H57" s="15"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="30"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="26" t="s">
+      <c r="A58" s="29"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="32" t="s">
         <v>48</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
@@ -9926,11 +9866,11 @@
       <c r="H58" s="15"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="30"/>
-      <c r="B59" s="30"/>
-      <c r="C59" s="26"/>
+      <c r="A59" s="29"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="32"/>
       <c r="D59" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E59" s="15"/>
       <c r="F59" s="15" t="s">
@@ -9944,11 +9884,11 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="30"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="26"/>
+      <c r="A60" s="29"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="32"/>
       <c r="D60" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
@@ -9958,11 +9898,11 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A61" s="31"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="27"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="33"/>
       <c r="D61" s="18" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
@@ -9973,16 +9913,6 @@
     <row r="74" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="B50:B61"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="B38:B49"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="C44:C45"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="A2:A61"/>
     <mergeCell ref="B2:B13"/>
@@ -9999,6 +9929,16 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:C31"/>
     <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="B38:B49"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="B50:B61"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="C56:C57"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:H61">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
